--- a/FASE_I/Cronograma de Actividades.xlsx
+++ b/FASE_I/Cronograma de Actividades.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9175228-78F3-43C8-9BA9-89D7995036C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C27E6-1D42-4E61-A4B4-D7C9884A951B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{E2AC4C99-70F0-4D77-B37D-574F160D3E68}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{E2AC4C99-70F0-4D77-B37D-574F160D3E68}">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Planificador de proyectos</t>
   </si>
@@ -85,33 +85,6 @@
     <t>ACTIVIDAD</t>
   </si>
   <si>
-    <t>Actividad 09</t>
-  </si>
-  <si>
-    <t>Actividad 10</t>
-  </si>
-  <si>
-    <t>Actividad 14</t>
-  </si>
-  <si>
-    <t>Actividad 15</t>
-  </si>
-  <si>
-    <t>Actividad 17</t>
-  </si>
-  <si>
-    <t>Actividad 18</t>
-  </si>
-  <si>
-    <t>Actividad 20</t>
-  </si>
-  <si>
-    <t>Actividad 22</t>
-  </si>
-  <si>
-    <t>Actividad 23</t>
-  </si>
-  <si>
     <t>INICIO DEL PLAN</t>
   </si>
   <si>
@@ -154,12 +127,6 @@
     <t>Gestion de requisitos</t>
   </si>
   <si>
-    <t>Prototipo</t>
-  </si>
-  <si>
-    <t>Matriz de riesgoz</t>
-  </si>
-  <si>
     <t>Despliegue</t>
   </si>
   <si>
@@ -200,6 +167,45 @@
   </si>
   <si>
     <t>SPRINT #3</t>
+  </si>
+  <si>
+    <t>SPRINT #4</t>
+  </si>
+  <si>
+    <t>Elaboracion de Prototipo</t>
+  </si>
+  <si>
+    <t>Matriz de Riesgoz</t>
+  </si>
+  <si>
+    <t>Eleccion de Framework</t>
+  </si>
+  <si>
+    <t>Construccion de BD</t>
+  </si>
+  <si>
+    <t>Modelaje de Datos</t>
+  </si>
+  <si>
+    <t>Entrega 50% de Proyecto funcional</t>
+  </si>
+  <si>
+    <t>Actualizacion de Riesgoz</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Desarrollo de reportes.</t>
+  </si>
+  <si>
+    <t>Desarrollo de modulos de la aplicacion.</t>
+  </si>
+  <si>
+    <t>Integracion biometrica</t>
+  </si>
+  <si>
+    <t>Entrega 1</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -413,8 +419,22 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,8 +673,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -710,15 +742,6 @@
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -828,6 +851,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -893,14 +938,14 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -926,19 +971,13 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -954,9 +993,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,73 +1011,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="39" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="40" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="41" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="42" borderId="2" xfId="3" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="3" xfId="18" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="18" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="3" xfId="18" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="18" applyFont="1" applyFill="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="39" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="40" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="41" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="42" borderId="2" xfId="3" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="3" xfId="18" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="18" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="3" xfId="18" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="18" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="44" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,13 +1573,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DI28"/>
+  <dimension ref="B1:DI29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -1516,509 +1591,510 @@
     <col min="107" max="113" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:113" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:113" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="2:113" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="48">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="40"/>
+      <c r="BM2" s="40"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="40"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
+      <c r="BV2" s="40"/>
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
+    </row>
+    <row r="3" spans="2:113" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AJ3" s="34"/>
+    </row>
+    <row r="4" spans="2:113" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>3</v>
+      </c>
+      <c r="K4" s="16">
+        <v>4</v>
+      </c>
+      <c r="L4" s="16">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16">
+        <v>6</v>
+      </c>
+      <c r="N4" s="16">
+        <v>7</v>
+      </c>
+      <c r="O4" s="16">
+        <v>8</v>
+      </c>
+      <c r="P4" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>10</v>
+      </c>
+      <c r="R4" s="16">
+        <v>11</v>
+      </c>
+      <c r="S4" s="16">
+        <v>12</v>
+      </c>
+      <c r="T4" s="16">
+        <v>13</v>
+      </c>
+      <c r="U4" s="16">
+        <v>14</v>
+      </c>
+      <c r="V4" s="16">
+        <v>15</v>
+      </c>
+      <c r="W4" s="16">
+        <v>16</v>
+      </c>
+      <c r="X4" s="16">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="17">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="17">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="17">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="17">
         <v>38</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="AT4" s="17">
+        <v>39</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>40</v>
+      </c>
+      <c r="AV4" s="17">
+        <v>41</v>
+      </c>
+      <c r="AW4" s="17">
+        <v>42</v>
+      </c>
+      <c r="AX4" s="17">
+        <v>43</v>
+      </c>
+      <c r="AY4" s="17">
+        <v>44</v>
+      </c>
+      <c r="AZ4" s="17">
+        <v>45</v>
+      </c>
+      <c r="BA4" s="17">
+        <v>46</v>
+      </c>
+      <c r="BB4" s="17">
+        <v>47</v>
+      </c>
+      <c r="BC4" s="17">
+        <v>48</v>
+      </c>
+      <c r="BD4" s="17">
+        <v>49</v>
+      </c>
+      <c r="BE4" s="17">
+        <v>50</v>
+      </c>
+      <c r="BF4" s="18">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="18">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="18">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="18">
+        <v>54</v>
+      </c>
+      <c r="BJ4" s="18">
+        <v>55</v>
+      </c>
+      <c r="BK4" s="18">
+        <v>56</v>
+      </c>
+      <c r="BL4" s="18">
+        <v>57</v>
+      </c>
+      <c r="BM4" s="18">
+        <v>58</v>
+      </c>
+      <c r="BN4" s="18">
+        <v>59</v>
+      </c>
+      <c r="BO4" s="18">
+        <v>60</v>
+      </c>
+      <c r="BP4" s="18">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="18">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="18">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="18">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="18">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="18">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="18">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="18">
+        <v>68</v>
+      </c>
+      <c r="BX4" s="18">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="18">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="18">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="18">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="18">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="18">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="18">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="18">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="18">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="18">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="18">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="18">
+        <v>80</v>
+      </c>
+      <c r="CJ4" s="18">
+        <v>81</v>
+      </c>
+      <c r="CK4" s="19">
+        <v>82</v>
+      </c>
+      <c r="CL4" s="19">
+        <v>83</v>
+      </c>
+      <c r="CM4" s="19">
+        <v>84</v>
+      </c>
+      <c r="CN4" s="19">
+        <v>85</v>
+      </c>
+      <c r="CO4" s="19">
+        <v>86</v>
+      </c>
+      <c r="CP4" s="19">
+        <v>87</v>
+      </c>
+      <c r="CQ4" s="19">
+        <v>88</v>
+      </c>
+      <c r="CR4" s="19">
+        <v>89</v>
+      </c>
+      <c r="CS4" s="19">
+        <v>90</v>
+      </c>
+      <c r="CT4" s="19">
+        <v>91</v>
+      </c>
+      <c r="CU4" s="19">
+        <v>92</v>
+      </c>
+      <c r="CV4" s="19">
+        <v>93</v>
+      </c>
+      <c r="CW4" s="19">
+        <v>94</v>
+      </c>
+      <c r="CX4" s="19">
+        <v>95</v>
+      </c>
+      <c r="CY4" s="19">
+        <v>96</v>
+      </c>
+      <c r="CZ4" s="19">
+        <v>97</v>
+      </c>
+      <c r="DA4" s="19">
+        <v>98</v>
+      </c>
+      <c r="DB4" s="19">
+        <v>99</v>
+      </c>
+      <c r="DC4" s="19">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="19">
+        <v>101</v>
+      </c>
+      <c r="DE4" s="19">
+        <v>102</v>
+      </c>
+      <c r="DF4" s="19">
+        <v>103</v>
+      </c>
+      <c r="DG4" s="19">
+        <v>104</v>
+      </c>
+      <c r="DH4" s="19">
+        <v>105</v>
+      </c>
+      <c r="DI4" s="19">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="2:113" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="5" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="22"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
-      <c r="BU2" s="19"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="19"/>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="19"/>
-      <c r="CD2" s="19"/>
-      <c r="CE2" s="19"/>
-      <c r="CF2" s="19"/>
-      <c r="CG2" s="19"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="19"/>
-    </row>
-    <row r="3" spans="2:113" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="D5" s="26">
+        <v>9</v>
+      </c>
+      <c r="E5" s="26">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="2:113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="30">
-        <v>1</v>
-      </c>
-      <c r="I4" s="30">
-        <v>2</v>
-      </c>
-      <c r="J4" s="30">
-        <v>3</v>
-      </c>
-      <c r="K4" s="30">
-        <v>4</v>
-      </c>
-      <c r="L4" s="30">
-        <v>5</v>
-      </c>
-      <c r="M4" s="30">
-        <v>6</v>
-      </c>
-      <c r="N4" s="30">
-        <v>7</v>
-      </c>
-      <c r="O4" s="30">
+      <c r="F5" s="26">
         <v>8</v>
       </c>
-      <c r="P4" s="30">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>10</v>
-      </c>
-      <c r="R4" s="30">
-        <v>11</v>
-      </c>
-      <c r="S4" s="30">
-        <v>12</v>
-      </c>
-      <c r="T4" s="30">
-        <v>13</v>
-      </c>
-      <c r="U4" s="30">
-        <v>14</v>
-      </c>
-      <c r="V4" s="30">
-        <v>15</v>
-      </c>
-      <c r="W4" s="30">
-        <v>16</v>
-      </c>
-      <c r="X4" s="30">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="30">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="30">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="30">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="31">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="31">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="31">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="31">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="31">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="31">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="31">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="31">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="31">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="31">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="31">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="31">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="31">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="31">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="31">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="31">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="31">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="31">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="31">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="31">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="31">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="31">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="31">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="31">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="31">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="31">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="31">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="31">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="31">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="31">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="32">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="32">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="32">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="32">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="32">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="32">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="32">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="32">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="32">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="32">
-        <v>60</v>
-      </c>
-      <c r="BP4" s="32">
-        <v>61</v>
-      </c>
-      <c r="BQ4" s="32">
-        <v>62</v>
-      </c>
-      <c r="BR4" s="32">
-        <v>63</v>
-      </c>
-      <c r="BS4" s="32">
-        <v>64</v>
-      </c>
-      <c r="BT4" s="32">
-        <v>65</v>
-      </c>
-      <c r="BU4" s="32">
-        <v>66</v>
-      </c>
-      <c r="BV4" s="32">
-        <v>67</v>
-      </c>
-      <c r="BW4" s="32">
-        <v>68</v>
-      </c>
-      <c r="BX4" s="32">
-        <v>69</v>
-      </c>
-      <c r="BY4" s="32">
-        <v>70</v>
-      </c>
-      <c r="BZ4" s="32">
-        <v>71</v>
-      </c>
-      <c r="CA4" s="32">
-        <v>72</v>
-      </c>
-      <c r="CB4" s="32">
-        <v>73</v>
-      </c>
-      <c r="CC4" s="32">
-        <v>74</v>
-      </c>
-      <c r="CD4" s="32">
-        <v>75</v>
-      </c>
-      <c r="CE4" s="32">
-        <v>76</v>
-      </c>
-      <c r="CF4" s="32">
-        <v>77</v>
-      </c>
-      <c r="CG4" s="32">
-        <v>78</v>
-      </c>
-      <c r="CH4" s="32">
-        <v>79</v>
-      </c>
-      <c r="CI4" s="32">
-        <v>80</v>
-      </c>
-      <c r="CJ4" s="32">
-        <v>81</v>
-      </c>
-      <c r="CK4" s="33">
-        <v>82</v>
-      </c>
-      <c r="CL4" s="33">
-        <v>83</v>
-      </c>
-      <c r="CM4" s="33">
-        <v>84</v>
-      </c>
-      <c r="CN4" s="33">
-        <v>85</v>
-      </c>
-      <c r="CO4" s="33">
-        <v>86</v>
-      </c>
-      <c r="CP4" s="33">
-        <v>87</v>
-      </c>
-      <c r="CQ4" s="33">
-        <v>88</v>
-      </c>
-      <c r="CR4" s="33">
-        <v>89</v>
-      </c>
-      <c r="CS4" s="33">
-        <v>90</v>
-      </c>
-      <c r="CT4" s="33">
-        <v>91</v>
-      </c>
-      <c r="CU4" s="33">
-        <v>92</v>
-      </c>
-      <c r="CV4" s="33">
-        <v>93</v>
-      </c>
-      <c r="CW4" s="33">
-        <v>94</v>
-      </c>
-      <c r="CX4" s="33">
-        <v>95</v>
-      </c>
-      <c r="CY4" s="33">
-        <v>96</v>
-      </c>
-      <c r="CZ4" s="33">
-        <v>97</v>
-      </c>
-      <c r="DA4" s="33">
-        <v>98</v>
-      </c>
-      <c r="DB4" s="33">
-        <v>99</v>
-      </c>
-      <c r="DC4" s="33">
-        <v>100</v>
-      </c>
-      <c r="DD4" s="33">
-        <v>101</v>
-      </c>
-      <c r="DE4" s="33">
-        <v>102</v>
-      </c>
-      <c r="DF4" s="33">
-        <v>103</v>
-      </c>
-      <c r="DG4" s="33">
-        <v>104</v>
-      </c>
-      <c r="DH4" s="33">
-        <v>105</v>
-      </c>
-      <c r="DI4" s="33">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>7</v>
-      </c>
-      <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G5" s="27">
         <v>0.7</v>
       </c>
       <c r="H5"/>
@@ -2042,23 +2118,23 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="17">
+    <row r="6" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="29">
         <v>6</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="29">
         <v>7</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="29">
         <v>6</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="29">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="30">
         <v>0.6</v>
       </c>
       <c r="H6"/>
@@ -2082,23 +2158,23 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="29">
         <v>11</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="29">
         <v>7</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="29">
         <v>11</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="29">
         <v>7</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="30">
         <v>0.8</v>
       </c>
       <c r="H7"/>
@@ -2122,24 +2198,24 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17">
-        <v>17</v>
-      </c>
-      <c r="D8" s="17">
+    <row r="8" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="29">
+        <v>6</v>
+      </c>
+      <c r="D8" s="29">
         <v>7</v>
       </c>
-      <c r="E8" s="17">
-        <v>17</v>
-      </c>
-      <c r="F8" s="17">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.15</v>
+      <c r="E8" s="29">
+        <v>6</v>
+      </c>
+      <c r="F8" s="29">
+        <v>6</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.4</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -2162,24 +2238,24 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="17">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17">
-        <v>9</v>
-      </c>
-      <c r="E9" s="17">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17">
+    <row r="9" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29">
         <v>7</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="E9" s="29">
+        <v>3</v>
+      </c>
+      <c r="F9" s="29">
+        <v>6</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -2202,23 +2278,23 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="17">
-        <v>30</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>30</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+    <row r="10" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="29">
+        <v>27</v>
+      </c>
+      <c r="D10" s="29">
+        <v>3</v>
+      </c>
+      <c r="E10" s="29">
+        <v>27</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3</v>
+      </c>
+      <c r="G10" s="30">
         <v>0</v>
       </c>
       <c r="H10"/>
@@ -2242,23 +2318,23 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="17">
-        <v>29</v>
-      </c>
-      <c r="D11" s="17">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17">
-        <v>21</v>
-      </c>
-      <c r="F11" s="17">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3">
+    <row r="11" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="29">
+        <v>27</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>27</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30">
         <v>0</v>
       </c>
       <c r="H11"/>
@@ -2282,13 +2358,19 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
+    <row r="12" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="29">
+        <v>29</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2310,11 +2392,19 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
+    <row r="13" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="29">
+        <v>21</v>
+      </c>
+      <c r="D13" s="29">
+        <v>14</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30">
         <v>0</v>
       </c>
       <c r="H13"/>
@@ -2338,23 +2428,19 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="29">
+        <v>27</v>
+      </c>
+      <c r="D14" s="29">
         <v>40</v>
       </c>
-      <c r="C14" s="17">
-        <v>39</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17">
-        <v>39</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30">
         <v>0</v>
       </c>
       <c r="H14"/>
@@ -2378,23 +2464,19 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="17">
-        <v>41</v>
-      </c>
-      <c r="D15" s="17">
-        <v>22</v>
-      </c>
-      <c r="E15" s="17">
-        <v>40</v>
-      </c>
-      <c r="F15" s="17">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3">
+    <row r="15" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="31">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31">
+        <v>80</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30">
         <v>0</v>
       </c>
       <c r="H15"/>
@@ -2418,15 +2500,19 @@
       <c r="Z15"/>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="3">
+    <row r="16" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="31">
+        <v>27</v>
+      </c>
+      <c r="D16" s="31">
+        <v>80</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30">
         <v>0</v>
       </c>
       <c r="H16"/>
@@ -2450,15 +2536,19 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="3">
+    <row r="17" spans="2:113" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="31">
+        <v>39</v>
+      </c>
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30">
         <v>0</v>
       </c>
       <c r="H17"/>
@@ -2482,23 +2572,19 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="17">
-        <v>63</v>
-      </c>
-      <c r="D18" s="17">
+    <row r="18" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="29">
+        <v>39</v>
+      </c>
+      <c r="D18" s="29">
         <v>1</v>
       </c>
-      <c r="E18" s="17">
-        <v>63</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30">
         <v>0</v>
       </c>
       <c r="H18"/>
@@ -2522,23 +2608,19 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="17">
-        <v>29</v>
-      </c>
-      <c r="D19" s="17">
-        <v>42</v>
-      </c>
-      <c r="E19" s="17">
-        <v>64</v>
-      </c>
-      <c r="F19" s="17">
-        <v>86</v>
-      </c>
-      <c r="G19" s="3">
+    <row r="19" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="29">
+        <v>41</v>
+      </c>
+      <c r="D19" s="29">
+        <v>22</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30">
         <v>0</v>
       </c>
       <c r="H19"/>
@@ -2562,11 +2644,19 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3">
+    <row r="20" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="29">
+        <v>21</v>
+      </c>
+      <c r="D20" s="29">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30">
         <v>0</v>
       </c>
       <c r="H20"/>
@@ -2590,11 +2680,19 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+    <row r="21" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="29">
+        <v>63</v>
+      </c>
+      <c r="D21" s="29">
+        <v>1</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30">
         <v>0</v>
       </c>
       <c r="H21"/>
@@ -2618,15 +2716,19 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="3">
+    <row r="22" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="29">
+        <v>27</v>
+      </c>
+      <c r="D22" s="29">
+        <v>42</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30">
         <v>0</v>
       </c>
       <c r="H22"/>
@@ -2650,15 +2752,19 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:113" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="3">
+      <c r="C23" s="36">
+        <v>27</v>
+      </c>
+      <c r="D23" s="36">
+        <v>78</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="30">
         <v>0</v>
       </c>
       <c r="H23"/>
@@ -2682,15 +2788,19 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="3">
+    <row r="24" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="36">
+        <v>37</v>
+      </c>
+      <c r="D24" s="36">
+        <v>78</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="30">
         <v>0</v>
       </c>
       <c r="H24"/>
@@ -2714,15 +2824,19 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="3">
+    <row r="25" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="37">
+        <v>42</v>
+      </c>
+      <c r="D25" s="37">
+        <v>78</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="30">
         <v>0</v>
       </c>
       <c r="H25"/>
@@ -2746,23 +2860,19 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="17">
-        <v>92</v>
-      </c>
-      <c r="D26" s="17">
-        <v>8</v>
-      </c>
-      <c r="E26" s="17">
-        <v>90</v>
-      </c>
-      <c r="F26" s="17">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3">
+    <row r="26" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="29">
+        <v>98</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30">
         <v>0</v>
       </c>
       <c r="H26"/>
@@ -2786,23 +2896,19 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="17">
-        <v>98</v>
-      </c>
-      <c r="D27" s="17">
+    <row r="27" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="29">
+        <v>92</v>
+      </c>
+      <c r="D27" s="29">
         <v>8</v>
       </c>
-      <c r="E27" s="17">
-        <v>96</v>
-      </c>
-      <c r="F27" s="17">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30">
         <v>0</v>
       </c>
       <c r="H27"/>
@@ -2826,23 +2932,19 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:113" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="17">
+    <row r="28" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="29">
         <v>98</v>
       </c>
-      <c r="D28" s="17">
-        <v>9</v>
-      </c>
-      <c r="E28" s="17">
-        <v>106</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="D28" s="29">
+        <v>8</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30">
         <v>0</v>
       </c>
       <c r="H28"/>
@@ -2865,52 +2967,88 @@
       <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="38"/>
-      <c r="BR28" s="38"/>
-      <c r="BS28" s="38"/>
-      <c r="BT28" s="38"/>
-      <c r="BU28" s="38"/>
-      <c r="BV28" s="38"/>
-      <c r="BW28" s="38"/>
-      <c r="BX28" s="38"/>
-      <c r="BY28" s="38"/>
-      <c r="BZ28" s="38"/>
-      <c r="CA28" s="38"/>
-      <c r="CB28" s="38"/>
-      <c r="CC28" s="38"/>
-      <c r="CD28" s="38"/>
-      <c r="CE28" s="38"/>
-      <c r="CF28" s="38"/>
-      <c r="CG28" s="38"/>
-      <c r="CH28" s="38"/>
-      <c r="CI28" s="38"/>
-      <c r="CJ28" s="38"/>
-      <c r="CK28" s="38"/>
-      <c r="CL28" s="38"/>
-      <c r="CM28" s="38"/>
-      <c r="CN28" s="38"/>
-      <c r="CO28" s="38"/>
-      <c r="CP28" s="38"/>
-      <c r="CQ28" s="38"/>
-      <c r="CR28" s="38"/>
-      <c r="CS28" s="38"/>
-      <c r="CT28" s="38"/>
-      <c r="CU28" s="38"/>
-      <c r="CV28" s="38"/>
-      <c r="CW28" s="38"/>
-      <c r="CX28" s="38"/>
-      <c r="CY28" s="38"/>
-      <c r="CZ28" s="38"/>
-      <c r="DA28" s="38"/>
-      <c r="DB28" s="38"/>
-      <c r="DC28" s="38"/>
-      <c r="DD28" s="38"/>
-      <c r="DE28" s="38"/>
-      <c r="DF28" s="38"/>
-      <c r="DG28" s="38"/>
-      <c r="DH28" s="38"/>
-      <c r="DI28" s="38"/>
+    </row>
+    <row r="29" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="29">
+        <v>98</v>
+      </c>
+      <c r="D29" s="29">
+        <v>9</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="BP29" s="24"/>
+      <c r="BQ29" s="24"/>
+      <c r="BR29" s="24"/>
+      <c r="BS29" s="24"/>
+      <c r="BT29" s="24"/>
+      <c r="BU29" s="24"/>
+      <c r="BV29" s="24"/>
+      <c r="BW29" s="24"/>
+      <c r="BX29" s="24"/>
+      <c r="BY29" s="24"/>
+      <c r="BZ29" s="24"/>
+      <c r="CA29" s="24"/>
+      <c r="CB29" s="24"/>
+      <c r="CC29" s="24"/>
+      <c r="CD29" s="24"/>
+      <c r="CE29" s="24"/>
+      <c r="CF29" s="24"/>
+      <c r="CG29" s="24"/>
+      <c r="CH29" s="24"/>
+      <c r="CI29" s="24"/>
+      <c r="CJ29" s="24"/>
+      <c r="CK29" s="24"/>
+      <c r="CL29" s="24"/>
+      <c r="CM29" s="24"/>
+      <c r="CN29" s="24"/>
+      <c r="CO29" s="24"/>
+      <c r="CP29" s="24"/>
+      <c r="CQ29" s="24"/>
+      <c r="CR29" s="24"/>
+      <c r="CS29" s="24"/>
+      <c r="CT29" s="24"/>
+      <c r="CU29" s="24"/>
+      <c r="CV29" s="24"/>
+      <c r="CW29" s="24"/>
+      <c r="CX29" s="24"/>
+      <c r="CY29" s="24"/>
+      <c r="CZ29" s="24"/>
+      <c r="DA29" s="24"/>
+      <c r="DB29" s="24"/>
+      <c r="DC29" s="24"/>
+      <c r="DD29" s="24"/>
+      <c r="DE29" s="24"/>
+      <c r="DF29" s="24"/>
+      <c r="DG29" s="24"/>
+      <c r="DH29" s="24"/>
+      <c r="DI29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2919,12 +3057,12 @@
     <mergeCell ref="BQ2:BY2"/>
     <mergeCell ref="CA2:CI2"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AK2:AS2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="R2:U2"/>
@@ -2932,7 +3070,7 @@
     <mergeCell ref="W2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="H5:DI28">
+  <conditionalFormatting sqref="H5:DI29">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2958,7 +3096,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:BO29">
+  <conditionalFormatting sqref="B30:BO30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -3005,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E754E05-9A67-4BC7-9670-AF4213C9CCF5}">
-  <dimension ref="A1:DB2"/>
+  <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="AC1" sqref="AC1:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,450 +3250,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A1" s="27">
+      <c r="A1" s="13">
         <v>43689</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="13">
         <v>43690</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="13">
         <v>43691</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="13">
         <v>43692</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="13">
         <v>43693</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="13">
         <v>43694</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="13">
         <v>43695</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="13">
         <v>43696</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="13">
         <v>43697</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="13">
         <v>43698</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="13">
         <v>43699</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="13">
         <v>43700</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="13">
         <v>43701</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="13">
         <v>43702</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="13">
         <v>43703</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="13">
         <v>43704</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="13">
         <v>43705</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="13">
         <v>43706</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="13">
         <v>43707</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="13">
         <v>43708</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="13">
         <v>43709</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="13">
         <v>43710</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="13">
         <v>43711</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="13">
         <v>43712</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="13">
         <v>43713</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="13">
         <v>43714</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="13">
         <v>43715</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="13">
         <v>43716</v>
       </c>
-      <c r="AC1" s="28">
+      <c r="AC1" s="14">
         <v>43717</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="13">
         <v>43718</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="13">
         <v>43719</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="13">
         <v>43720</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="13">
         <v>43721</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="13">
         <v>43722</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="13">
         <v>43723</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="13">
         <v>43724</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="13">
         <v>43725</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="13">
         <v>43726</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="13">
         <v>43727</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="13">
         <v>43728</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="13">
         <v>43729</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="13">
         <v>43730</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="13">
         <v>43731</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="13">
         <v>43732</v>
       </c>
-      <c r="AS1" s="27">
+      <c r="AS1" s="13">
         <v>43733</v>
       </c>
-      <c r="AT1" s="27">
+      <c r="AT1" s="13">
         <v>43734</v>
       </c>
-      <c r="AU1" s="27">
+      <c r="AU1" s="13">
         <v>43735</v>
       </c>
-      <c r="AV1" s="27">
+      <c r="AV1" s="13">
         <v>43736</v>
       </c>
-      <c r="AW1" s="27">
+      <c r="AW1" s="13">
         <v>43737</v>
       </c>
-      <c r="AX1" s="27">
+      <c r="AX1" s="13">
         <v>43738</v>
       </c>
-      <c r="AY1" s="27">
+      <c r="AY1" s="13">
         <v>43739</v>
       </c>
-      <c r="AZ1" s="27">
+      <c r="AZ1" s="13">
         <v>43740</v>
       </c>
-      <c r="BA1" s="27">
+      <c r="BA1" s="13">
         <v>43741</v>
       </c>
-      <c r="BB1" s="27">
+      <c r="BB1" s="13">
         <v>43742</v>
       </c>
-      <c r="BC1" s="27">
+      <c r="BC1" s="13">
         <v>43743</v>
       </c>
-      <c r="BD1" s="27">
+      <c r="BD1" s="13">
         <v>43744</v>
       </c>
-      <c r="BE1" s="27">
+      <c r="BE1" s="13">
         <v>43745</v>
       </c>
-      <c r="BF1" s="27">
+      <c r="BF1" s="13">
         <v>43746</v>
       </c>
-      <c r="BG1" s="27">
+      <c r="BG1" s="13">
         <v>43747</v>
       </c>
-      <c r="BH1" s="27">
+      <c r="BH1" s="13">
         <v>43748</v>
       </c>
-      <c r="BI1" s="27">
+      <c r="BI1" s="13">
         <v>43749</v>
       </c>
-      <c r="BJ1" s="27">
+      <c r="BJ1" s="13">
         <v>43750</v>
       </c>
-      <c r="BK1" s="27">
+      <c r="BK1" s="13">
         <v>43751</v>
       </c>
-      <c r="BL1" s="27">
+      <c r="BL1" s="13">
         <v>43752</v>
       </c>
-      <c r="BM1" s="27">
+      <c r="BM1" s="13">
         <v>43753</v>
       </c>
-      <c r="BN1" s="27">
+      <c r="BN1" s="13">
         <v>43754</v>
       </c>
-      <c r="BO1" s="27">
+      <c r="BO1" s="13">
         <v>43755</v>
       </c>
-      <c r="BP1" s="27">
+      <c r="BP1" s="13">
         <v>43756</v>
       </c>
-      <c r="BQ1" s="27">
+      <c r="BQ1" s="13">
         <v>43757</v>
       </c>
-      <c r="BR1" s="27">
+      <c r="BR1" s="13">
         <v>43758</v>
       </c>
-      <c r="BS1" s="27">
+      <c r="BS1" s="13">
         <v>43759</v>
       </c>
-      <c r="BT1" s="27">
+      <c r="BT1" s="13">
         <v>43760</v>
       </c>
-      <c r="BU1" s="27">
+      <c r="BU1" s="13">
         <v>43761</v>
       </c>
-      <c r="BV1" s="27">
+      <c r="BV1" s="13">
         <v>43762</v>
       </c>
-      <c r="BW1" s="27">
+      <c r="BW1" s="13">
         <v>43763</v>
       </c>
-      <c r="BX1" s="27">
+      <c r="BX1" s="13">
         <v>43764</v>
       </c>
-      <c r="BY1" s="27">
+      <c r="BY1" s="13">
         <v>43765</v>
       </c>
-      <c r="BZ1" s="27">
+      <c r="BZ1" s="13">
         <v>43766</v>
       </c>
-      <c r="CA1" s="27">
+      <c r="CA1" s="13">
         <v>43767</v>
       </c>
-      <c r="CB1" s="27">
+      <c r="CB1" s="13">
         <v>43768</v>
       </c>
-      <c r="CC1" s="27">
+      <c r="CC1" s="13">
         <v>43769</v>
       </c>
-      <c r="CD1" s="27">
+      <c r="CD1" s="13">
         <v>43770</v>
       </c>
-      <c r="CE1" s="27">
+      <c r="CE1" s="13">
         <v>43771</v>
       </c>
-      <c r="CF1" s="27">
+      <c r="CF1" s="13">
         <v>43772</v>
       </c>
-      <c r="CG1" s="27">
+      <c r="CG1" s="13">
         <v>43773</v>
       </c>
-      <c r="CH1" s="27">
+      <c r="CH1" s="13">
         <v>43774</v>
       </c>
-      <c r="CI1" s="27">
+      <c r="CI1" s="13">
         <v>43775</v>
       </c>
-      <c r="CJ1" s="27">
+      <c r="CJ1" s="13">
         <v>43776</v>
       </c>
-      <c r="CK1" s="27">
+      <c r="CK1" s="13">
         <v>43777</v>
       </c>
-      <c r="CL1" s="27">
+      <c r="CL1" s="13">
         <v>43778</v>
       </c>
-      <c r="CM1" s="27">
+      <c r="CM1" s="13">
         <v>43779</v>
       </c>
-      <c r="CN1" s="27">
+      <c r="CN1" s="13">
         <v>43780</v>
       </c>
-      <c r="CO1" s="27">
+      <c r="CO1" s="13">
         <v>43781</v>
       </c>
-      <c r="CP1" s="27">
+      <c r="CP1" s="13">
         <v>43782</v>
       </c>
-      <c r="CQ1" s="27">
+      <c r="CQ1" s="13">
         <v>43783</v>
       </c>
-      <c r="CR1" s="27">
+      <c r="CR1" s="13">
         <v>43784</v>
       </c>
-      <c r="CS1" s="27">
+      <c r="CS1" s="13">
         <v>43785</v>
       </c>
-      <c r="CT1" s="27">
+      <c r="CT1" s="13">
         <v>43786</v>
       </c>
-      <c r="CU1" s="27">
+      <c r="CU1" s="13">
         <v>43787</v>
       </c>
-      <c r="CV1" s="27">
+      <c r="CV1" s="13">
         <v>43788</v>
       </c>
-      <c r="CW1" s="27">
+      <c r="CW1" s="13">
         <v>43789</v>
       </c>
-      <c r="CX1" s="27">
+      <c r="CX1" s="13">
         <v>43790</v>
       </c>
-      <c r="CY1" s="27">
+      <c r="CY1" s="13">
         <v>43791</v>
       </c>
-      <c r="CZ1" s="27">
+      <c r="CZ1" s="13">
         <v>43792</v>
       </c>
-      <c r="DA1" s="27">
+      <c r="DA1" s="13">
         <v>43793</v>
       </c>
-      <c r="DB1" s="27">
+      <c r="DB1" s="13">
         <v>43794</v>
       </c>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="15">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="15">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="15">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="15">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="32">
         <v>8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="32">
         <v>9</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="32">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="32">
         <v>11</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="32">
         <v>12</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="32">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="32">
         <v>14</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="33">
         <v>15</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="33">
         <v>16</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="33">
         <v>17</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="33">
         <v>18</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="33">
         <v>19</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="33">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="33">
         <v>21</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="15">
         <v>22</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="15">
         <v>23</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="15">
         <v>24</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="15">
         <v>25</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="15">
         <v>26</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="15">
         <v>27</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="15">
         <v>28</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="32">
         <v>29</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="32">
         <v>30</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="32">
         <v>31</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="32">
         <v>32</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="32">
         <v>33</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="32">
         <v>34</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="32">
         <v>35</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="33">
         <v>36</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="33">
         <v>37</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="33">
         <v>38</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="33">
         <v>39</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="33">
         <v>40</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="33">
         <v>41</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="33">
         <v>42</v>
       </c>
       <c r="AQ2">
@@ -3749,6 +3887,21 @@
       </c>
       <c r="DB2">
         <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f>B7*C7*D7</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/FASE_I/Cronograma de Actividades.xlsx
+++ b/FASE_I/Cronograma de Actividades.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C27E6-1D42-4E61-A4B4-D7C9884A951B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1689C1-54F9-4E2B-8A38-C47B5BAB9E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -69,6 +69,106 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{2E992CA3-34D2-4956-B52D-8F9F37B54971}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entreg 2 14 octubre
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{49C5FF36-EA04-48EF-8902-4ADD533ADE31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entrega 3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{22EAA5F8-41B3-43B6-BB10-155BCC8D74E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entrega 4
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{C610CCA0-698D-45D7-98E6-0BFA91ACF291}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entrega final
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -218,7 +318,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -426,15 +526,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,14 +772,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -742,6 +829,15 @@
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -938,14 +1034,14 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -978,6 +1074,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -993,6 +1092,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,16 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="18" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1065,7 +1158,16 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
@@ -1077,25 +1179,28 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
@@ -1109,15 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="44" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1575,8 +1671,8 @@
   </sheetPr>
   <dimension ref="B1:DI29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,509 +1688,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:113" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="47" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="39" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="39" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="39" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="39" t="s">
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="39" t="s">
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="39" t="s">
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="39" t="s">
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
-      <c r="BV2" s="40"/>
-      <c r="BW2" s="40"/>
-      <c r="BX2" s="40"/>
-      <c r="BY2" s="40"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="39" t="s">
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="CB2" s="40"/>
-      <c r="CC2" s="40"/>
-      <c r="CD2" s="40"/>
-      <c r="CE2" s="40"/>
-      <c r="CF2" s="40"/>
-      <c r="CG2" s="40"/>
-      <c r="CH2" s="40"/>
-      <c r="CI2" s="40"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
     </row>
-    <row r="3" spans="2:113" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+    <row r="3" spans="2:113" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AJ3" s="34"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AJ3" s="36"/>
     </row>
     <row r="4" spans="2:113" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="16">
+      <c r="B4" s="46"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="18">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="18">
         <v>2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="18">
         <v>3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="18">
         <v>4</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="18">
         <v>5</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="18">
         <v>6</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="18">
         <v>7</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="18">
         <v>8</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="18">
         <v>9</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="18">
         <v>10</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="18">
         <v>11</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="18">
         <v>12</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="18">
         <v>13</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="18">
         <v>14</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="18">
         <v>15</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="18">
         <v>16</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="18">
         <v>17</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="18">
         <v>18</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="18">
         <v>19</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="18">
         <v>20</v>
       </c>
-      <c r="AB4" s="17">
+      <c r="AB4" s="19">
         <v>21</v>
       </c>
-      <c r="AC4" s="17">
+      <c r="AC4" s="19">
         <v>22</v>
       </c>
-      <c r="AD4" s="17">
+      <c r="AD4" s="19">
         <v>23</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="19">
         <v>24</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AF4" s="19">
         <v>25</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="19">
         <v>26</v>
       </c>
-      <c r="AH4" s="17">
+      <c r="AH4" s="19">
         <v>27</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AI4" s="19">
         <v>28</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AJ4" s="19">
         <v>29</v>
       </c>
-      <c r="AK4" s="17">
+      <c r="AK4" s="19">
         <v>30</v>
       </c>
-      <c r="AL4" s="17">
+      <c r="AL4" s="19">
         <v>31</v>
       </c>
-      <c r="AM4" s="17">
+      <c r="AM4" s="19">
         <v>32</v>
       </c>
-      <c r="AN4" s="17">
+      <c r="AN4" s="19">
         <v>33</v>
       </c>
-      <c r="AO4" s="17">
+      <c r="AO4" s="19">
         <v>34</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AP4" s="19">
         <v>35</v>
       </c>
-      <c r="AQ4" s="17">
+      <c r="AQ4" s="19">
         <v>36</v>
       </c>
-      <c r="AR4" s="17">
+      <c r="AR4" s="19">
         <v>37</v>
       </c>
-      <c r="AS4" s="17">
+      <c r="AS4" s="19">
         <v>38</v>
       </c>
-      <c r="AT4" s="17">
+      <c r="AT4" s="19">
         <v>39</v>
       </c>
-      <c r="AU4" s="17">
+      <c r="AU4" s="19">
         <v>40</v>
       </c>
-      <c r="AV4" s="17">
+      <c r="AV4" s="19">
         <v>41</v>
       </c>
-      <c r="AW4" s="17">
+      <c r="AW4" s="19">
         <v>42</v>
       </c>
-      <c r="AX4" s="17">
+      <c r="AX4" s="19">
         <v>43</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="AY4" s="19">
         <v>44</v>
       </c>
-      <c r="AZ4" s="17">
+      <c r="AZ4" s="19">
         <v>45</v>
       </c>
-      <c r="BA4" s="17">
+      <c r="BA4" s="19">
         <v>46</v>
       </c>
-      <c r="BB4" s="17">
+      <c r="BB4" s="19">
         <v>47</v>
       </c>
-      <c r="BC4" s="17">
+      <c r="BC4" s="19">
         <v>48</v>
       </c>
-      <c r="BD4" s="17">
+      <c r="BD4" s="19">
         <v>49</v>
       </c>
-      <c r="BE4" s="17">
+      <c r="BE4" s="19">
         <v>50</v>
       </c>
-      <c r="BF4" s="18">
+      <c r="BF4" s="20">
         <v>51</v>
       </c>
-      <c r="BG4" s="18">
+      <c r="BG4" s="20">
         <v>52</v>
       </c>
-      <c r="BH4" s="18">
+      <c r="BH4" s="20">
         <v>53</v>
       </c>
-      <c r="BI4" s="18">
+      <c r="BI4" s="20">
         <v>54</v>
       </c>
-      <c r="BJ4" s="18">
+      <c r="BJ4" s="20">
         <v>55</v>
       </c>
-      <c r="BK4" s="18">
+      <c r="BK4" s="20">
         <v>56</v>
       </c>
-      <c r="BL4" s="18">
+      <c r="BL4" s="20">
         <v>57</v>
       </c>
-      <c r="BM4" s="18">
+      <c r="BM4" s="20">
         <v>58</v>
       </c>
-      <c r="BN4" s="18">
+      <c r="BN4" s="20">
         <v>59</v>
       </c>
-      <c r="BO4" s="18">
+      <c r="BO4" s="20">
         <v>60</v>
       </c>
-      <c r="BP4" s="18">
+      <c r="BP4" s="20">
         <v>61</v>
       </c>
-      <c r="BQ4" s="18">
+      <c r="BQ4" s="20">
         <v>62</v>
       </c>
-      <c r="BR4" s="18">
+      <c r="BR4" s="20">
         <v>63</v>
       </c>
-      <c r="BS4" s="18">
+      <c r="BS4" s="20">
         <v>64</v>
       </c>
-      <c r="BT4" s="18">
+      <c r="BT4" s="20">
         <v>65</v>
       </c>
-      <c r="BU4" s="18">
+      <c r="BU4" s="20">
         <v>66</v>
       </c>
-      <c r="BV4" s="18">
+      <c r="BV4" s="20">
         <v>67</v>
       </c>
-      <c r="BW4" s="18">
+      <c r="BW4" s="20">
         <v>68</v>
       </c>
-      <c r="BX4" s="18">
+      <c r="BX4" s="20">
         <v>69</v>
       </c>
-      <c r="BY4" s="18">
+      <c r="BY4" s="20">
         <v>70</v>
       </c>
-      <c r="BZ4" s="18">
+      <c r="BZ4" s="20">
         <v>71</v>
       </c>
-      <c r="CA4" s="18">
+      <c r="CA4" s="20">
         <v>72</v>
       </c>
-      <c r="CB4" s="18">
+      <c r="CB4" s="20">
         <v>73</v>
       </c>
-      <c r="CC4" s="18">
+      <c r="CC4" s="20">
         <v>74</v>
       </c>
-      <c r="CD4" s="18">
+      <c r="CD4" s="20">
         <v>75</v>
       </c>
-      <c r="CE4" s="18">
+      <c r="CE4" s="20">
         <v>76</v>
       </c>
-      <c r="CF4" s="18">
+      <c r="CF4" s="20">
         <v>77</v>
       </c>
-      <c r="CG4" s="18">
+      <c r="CG4" s="20">
         <v>78</v>
       </c>
-      <c r="CH4" s="18">
+      <c r="CH4" s="20">
         <v>79</v>
       </c>
-      <c r="CI4" s="18">
+      <c r="CI4" s="20">
         <v>80</v>
       </c>
-      <c r="CJ4" s="18">
+      <c r="CJ4" s="20">
         <v>81</v>
       </c>
-      <c r="CK4" s="19">
+      <c r="CK4" s="21">
         <v>82</v>
       </c>
-      <c r="CL4" s="19">
+      <c r="CL4" s="21">
         <v>83</v>
       </c>
-      <c r="CM4" s="19">
+      <c r="CM4" s="21">
         <v>84</v>
       </c>
-      <c r="CN4" s="19">
+      <c r="CN4" s="21">
         <v>85</v>
       </c>
-      <c r="CO4" s="19">
+      <c r="CO4" s="21">
         <v>86</v>
       </c>
-      <c r="CP4" s="19">
+      <c r="CP4" s="21">
         <v>87</v>
       </c>
-      <c r="CQ4" s="19">
+      <c r="CQ4" s="21">
         <v>88</v>
       </c>
-      <c r="CR4" s="19">
+      <c r="CR4" s="21">
         <v>89</v>
       </c>
-      <c r="CS4" s="19">
+      <c r="CS4" s="21">
         <v>90</v>
       </c>
-      <c r="CT4" s="19">
+      <c r="CT4" s="21">
         <v>91</v>
       </c>
-      <c r="CU4" s="19">
+      <c r="CU4" s="21">
         <v>92</v>
       </c>
-      <c r="CV4" s="19">
+      <c r="CV4" s="21">
         <v>93</v>
       </c>
-      <c r="CW4" s="19">
+      <c r="CW4" s="21">
         <v>94</v>
       </c>
-      <c r="CX4" s="19">
+      <c r="CX4" s="21">
         <v>95</v>
       </c>
-      <c r="CY4" s="19">
+      <c r="CY4" s="21">
         <v>96</v>
       </c>
-      <c r="CZ4" s="19">
+      <c r="CZ4" s="21">
         <v>97</v>
       </c>
-      <c r="DA4" s="19">
+      <c r="DA4" s="21">
         <v>98</v>
       </c>
-      <c r="DB4" s="19">
+      <c r="DB4" s="21">
         <v>99</v>
       </c>
-      <c r="DC4" s="19">
+      <c r="DC4" s="21">
         <v>100</v>
       </c>
-      <c r="DD4" s="19">
+      <c r="DD4" s="21">
         <v>101</v>
       </c>
-      <c r="DE4" s="19">
+      <c r="DE4" s="21">
         <v>102</v>
       </c>
-      <c r="DF4" s="19">
+      <c r="DF4" s="21">
         <v>103</v>
       </c>
-      <c r="DG4" s="19">
+      <c r="DG4" s="21">
         <v>104</v>
       </c>
-      <c r="DH4" s="19">
+      <c r="DH4" s="21">
         <v>105</v>
       </c>
-      <c r="DI4" s="19">
+      <c r="DI4" s="21">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="28">
         <v>9</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="28">
         <v>2</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="28">
         <v>8</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="29">
         <v>0.7</v>
       </c>
       <c r="H5"/>
@@ -2119,22 +2215,22 @@
       <c r="AA5"/>
     </row>
     <row r="6" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="31">
         <v>6</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="31">
         <v>7</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <v>6</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="31">
         <v>6</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="32">
         <v>0.6</v>
       </c>
       <c r="H6"/>
@@ -2159,22 +2255,22 @@
       <c r="AA6"/>
     </row>
     <row r="7" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="31">
         <v>11</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="31">
         <v>7</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <v>11</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="31">
         <v>7</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="32">
         <v>0.8</v>
       </c>
       <c r="H7"/>
@@ -2199,22 +2295,22 @@
       <c r="AA7"/>
     </row>
     <row r="8" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="31">
         <v>6</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="31">
         <v>7</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="31">
         <v>6</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="31">
         <v>6</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="32">
         <v>0.4</v>
       </c>
       <c r="H8"/>
@@ -2239,22 +2335,22 @@
       <c r="AA8"/>
     </row>
     <row r="9" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="31">
         <v>7</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="31">
         <v>6</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="32">
         <v>1</v>
       </c>
       <c r="H9"/>
@@ -2279,22 +2375,22 @@
       <c r="AA9"/>
     </row>
     <row r="10" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="31">
         <v>27</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="31">
         <v>3</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="31">
         <v>27</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="31">
         <v>3</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="32">
         <v>0</v>
       </c>
       <c r="H10"/>
@@ -2319,22 +2415,22 @@
       <c r="AA10"/>
     </row>
     <row r="11" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="31">
         <v>27</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="31">
         <v>1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <v>27</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="32">
         <v>0</v>
       </c>
       <c r="H11"/>
@@ -2359,18 +2455,18 @@
       <c r="AA11"/>
     </row>
     <row r="12" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>29</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="31">
         <v>1</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2393,18 +2489,18 @@
       <c r="AA12"/>
     </row>
     <row r="13" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="31">
         <v>21</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="31">
         <v>14</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32">
         <v>0</v>
       </c>
       <c r="H13"/>
@@ -2429,18 +2525,18 @@
       <c r="AA13"/>
     </row>
     <row r="14" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="39">
         <v>27</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="39">
         <v>40</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32">
         <v>0</v>
       </c>
       <c r="H14"/>
@@ -2465,18 +2561,18 @@
       <c r="AA14"/>
     </row>
     <row r="15" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="38">
         <v>27</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="38">
         <v>80</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="30">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32">
         <v>0</v>
       </c>
       <c r="H15"/>
@@ -2501,18 +2597,18 @@
       <c r="AA15"/>
     </row>
     <row r="16" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="38">
         <v>27</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="38">
         <v>80</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32">
         <v>0</v>
       </c>
       <c r="H16"/>
@@ -2537,18 +2633,18 @@
       <c r="AA16"/>
     </row>
     <row r="17" spans="2:113" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="31">
-        <v>39</v>
-      </c>
-      <c r="D17" s="31">
+      <c r="C17" s="38">
+        <v>57</v>
+      </c>
+      <c r="D17" s="38">
         <v>1</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32">
         <v>0</v>
       </c>
       <c r="H17"/>
@@ -2573,18 +2669,18 @@
       <c r="AA17"/>
     </row>
     <row r="18" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="29">
-        <v>39</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="C18" s="39">
+        <v>57</v>
+      </c>
+      <c r="D18" s="39">
         <v>1</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32">
         <v>0</v>
       </c>
       <c r="H18"/>
@@ -2609,18 +2705,18 @@
       <c r="AA18"/>
     </row>
     <row r="19" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="39">
         <v>41</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="39">
         <v>22</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32">
         <v>0</v>
       </c>
       <c r="H19"/>
@@ -2645,18 +2741,18 @@
       <c r="AA19"/>
     </row>
     <row r="20" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="39">
         <v>21</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="39">
         <v>8</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30">
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32">
         <v>0</v>
       </c>
       <c r="H20"/>
@@ -2681,18 +2777,18 @@
       <c r="AA20"/>
     </row>
     <row r="21" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29">
-        <v>63</v>
-      </c>
-      <c r="D21" s="29">
+      <c r="C21" s="39">
+        <v>78</v>
+      </c>
+      <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30">
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32">
         <v>0</v>
       </c>
       <c r="H21"/>
@@ -2717,18 +2813,18 @@
       <c r="AA21"/>
     </row>
     <row r="22" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="39">
         <v>27</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="39">
         <v>42</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32">
         <v>0</v>
       </c>
       <c r="H22"/>
@@ -2753,18 +2849,18 @@
       <c r="AA22"/>
     </row>
     <row r="23" spans="2:113" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="38">
         <v>27</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="38">
         <v>78</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="30">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="32">
         <v>0</v>
       </c>
       <c r="H23"/>
@@ -2789,18 +2885,18 @@
       <c r="AA23"/>
     </row>
     <row r="24" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="38">
         <v>37</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="38">
         <v>78</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="30">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="32">
         <v>0</v>
       </c>
       <c r="H24"/>
@@ -2825,18 +2921,18 @@
       <c r="AA24"/>
     </row>
     <row r="25" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="39">
         <v>42</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="39">
         <v>78</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="30">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="32">
         <v>0</v>
       </c>
       <c r="H25"/>
@@ -2861,18 +2957,18 @@
       <c r="AA25"/>
     </row>
     <row r="26" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="29">
-        <v>98</v>
-      </c>
-      <c r="D26" s="29">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30">
+      <c r="C26" s="39">
+        <v>92</v>
+      </c>
+      <c r="D26" s="39">
+        <v>8</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32">
         <v>0</v>
       </c>
       <c r="H26"/>
@@ -2897,18 +2993,18 @@
       <c r="AA26"/>
     </row>
     <row r="27" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="39">
         <v>92</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="39">
         <v>8</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32">
         <v>0</v>
       </c>
       <c r="H27"/>
@@ -2933,18 +3029,18 @@
       <c r="AA27"/>
     </row>
     <row r="28" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="29">
-        <v>98</v>
-      </c>
-      <c r="D28" s="29">
-        <v>8</v>
-      </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30">
+      <c r="C28" s="39">
+        <v>99</v>
+      </c>
+      <c r="D28" s="39">
+        <v>7</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32">
         <v>0</v>
       </c>
       <c r="H28"/>
@@ -2969,18 +3065,18 @@
       <c r="AA28"/>
     </row>
     <row r="29" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="39">
         <v>98</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="39">
         <v>9</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32">
         <v>0</v>
       </c>
       <c r="H29"/>
@@ -3003,52 +3099,52 @@
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
-      <c r="BP29" s="24"/>
-      <c r="BQ29" s="24"/>
-      <c r="BR29" s="24"/>
-      <c r="BS29" s="24"/>
-      <c r="BT29" s="24"/>
-      <c r="BU29" s="24"/>
-      <c r="BV29" s="24"/>
-      <c r="BW29" s="24"/>
-      <c r="BX29" s="24"/>
-      <c r="BY29" s="24"/>
-      <c r="BZ29" s="24"/>
-      <c r="CA29" s="24"/>
-      <c r="CB29" s="24"/>
-      <c r="CC29" s="24"/>
-      <c r="CD29" s="24"/>
-      <c r="CE29" s="24"/>
-      <c r="CF29" s="24"/>
-      <c r="CG29" s="24"/>
-      <c r="CH29" s="24"/>
-      <c r="CI29" s="24"/>
-      <c r="CJ29" s="24"/>
-      <c r="CK29" s="24"/>
-      <c r="CL29" s="24"/>
-      <c r="CM29" s="24"/>
-      <c r="CN29" s="24"/>
-      <c r="CO29" s="24"/>
-      <c r="CP29" s="24"/>
-      <c r="CQ29" s="24"/>
-      <c r="CR29" s="24"/>
-      <c r="CS29" s="24"/>
-      <c r="CT29" s="24"/>
-      <c r="CU29" s="24"/>
-      <c r="CV29" s="24"/>
-      <c r="CW29" s="24"/>
-      <c r="CX29" s="24"/>
-      <c r="CY29" s="24"/>
-      <c r="CZ29" s="24"/>
-      <c r="DA29" s="24"/>
-      <c r="DB29" s="24"/>
-      <c r="DC29" s="24"/>
-      <c r="DD29" s="24"/>
-      <c r="DE29" s="24"/>
-      <c r="DF29" s="24"/>
-      <c r="DG29" s="24"/>
-      <c r="DH29" s="24"/>
-      <c r="DI29" s="24"/>
+      <c r="BP29" s="26"/>
+      <c r="BQ29" s="26"/>
+      <c r="BR29" s="26"/>
+      <c r="BS29" s="26"/>
+      <c r="BT29" s="26"/>
+      <c r="BU29" s="26"/>
+      <c r="BV29" s="26"/>
+      <c r="BW29" s="26"/>
+      <c r="BX29" s="26"/>
+      <c r="BY29" s="26"/>
+      <c r="BZ29" s="26"/>
+      <c r="CA29" s="26"/>
+      <c r="CB29" s="26"/>
+      <c r="CC29" s="26"/>
+      <c r="CD29" s="26"/>
+      <c r="CE29" s="26"/>
+      <c r="CF29" s="26"/>
+      <c r="CG29" s="26"/>
+      <c r="CH29" s="26"/>
+      <c r="CI29" s="26"/>
+      <c r="CJ29" s="26"/>
+      <c r="CK29" s="26"/>
+      <c r="CL29" s="26"/>
+      <c r="CM29" s="26"/>
+      <c r="CN29" s="26"/>
+      <c r="CO29" s="26"/>
+      <c r="CP29" s="26"/>
+      <c r="CQ29" s="26"/>
+      <c r="CR29" s="26"/>
+      <c r="CS29" s="26"/>
+      <c r="CT29" s="26"/>
+      <c r="CU29" s="26"/>
+      <c r="CV29" s="26"/>
+      <c r="CW29" s="26"/>
+      <c r="CX29" s="26"/>
+      <c r="CY29" s="26"/>
+      <c r="CZ29" s="26"/>
+      <c r="DA29" s="26"/>
+      <c r="DB29" s="26"/>
+      <c r="DC29" s="26"/>
+      <c r="DD29" s="26"/>
+      <c r="DE29" s="26"/>
+      <c r="DF29" s="26"/>
+      <c r="DG29" s="26"/>
+      <c r="DH29" s="26"/>
+      <c r="DI29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3145,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E754E05-9A67-4BC7-9670-AF4213C9CCF5}">
   <dimension ref="A1:DB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC2"/>
+    <sheetView topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BZ2" sqref="BZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,450 +3346,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
+      <c r="A1" s="15">
         <v>43689</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="15">
         <v>43690</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="15">
         <v>43691</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="15">
         <v>43692</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="15">
         <v>43693</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="15">
         <v>43694</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="15">
         <v>43695</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="15">
         <v>43696</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="15">
         <v>43697</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="15">
         <v>43698</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="15">
         <v>43699</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="15">
         <v>43700</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="15">
         <v>43701</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="15">
         <v>43702</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="15">
         <v>43703</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="15">
         <v>43704</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="15">
         <v>43705</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="15">
         <v>43706</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="15">
         <v>43707</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="15">
         <v>43708</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="15">
         <v>43709</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="15">
         <v>43710</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="15">
         <v>43711</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="15">
         <v>43712</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="Y1" s="15">
         <v>43713</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="Z1" s="15">
         <v>43714</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="AA1" s="15">
         <v>43715</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="15">
         <v>43716</v>
       </c>
-      <c r="AC1" s="14">
+      <c r="AC1" s="16">
         <v>43717</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AD1" s="15">
         <v>43718</v>
       </c>
-      <c r="AE1" s="13">
+      <c r="AE1" s="15">
         <v>43719</v>
       </c>
-      <c r="AF1" s="13">
+      <c r="AF1" s="15">
         <v>43720</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="15">
         <v>43721</v>
       </c>
-      <c r="AH1" s="13">
+      <c r="AH1" s="15">
         <v>43722</v>
       </c>
-      <c r="AI1" s="13">
+      <c r="AI1" s="15">
         <v>43723</v>
       </c>
-      <c r="AJ1" s="13">
+      <c r="AJ1" s="15">
         <v>43724</v>
       </c>
-      <c r="AK1" s="13">
+      <c r="AK1" s="15">
         <v>43725</v>
       </c>
-      <c r="AL1" s="13">
+      <c r="AL1" s="15">
         <v>43726</v>
       </c>
-      <c r="AM1" s="13">
+      <c r="AM1" s="15">
         <v>43727</v>
       </c>
-      <c r="AN1" s="13">
+      <c r="AN1" s="15">
         <v>43728</v>
       </c>
-      <c r="AO1" s="13">
+      <c r="AO1" s="15">
         <v>43729</v>
       </c>
-      <c r="AP1" s="13">
+      <c r="AP1" s="15">
         <v>43730</v>
       </c>
-      <c r="AQ1" s="13">
+      <c r="AQ1" s="15">
         <v>43731</v>
       </c>
-      <c r="AR1" s="13">
+      <c r="AR1" s="15">
         <v>43732</v>
       </c>
-      <c r="AS1" s="13">
+      <c r="AS1" s="15">
         <v>43733</v>
       </c>
-      <c r="AT1" s="13">
+      <c r="AT1" s="15">
         <v>43734</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="AU1" s="15">
         <v>43735</v>
       </c>
-      <c r="AV1" s="13">
+      <c r="AV1" s="15">
         <v>43736</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="AW1" s="15">
         <v>43737</v>
       </c>
-      <c r="AX1" s="13">
+      <c r="AX1" s="15">
         <v>43738</v>
       </c>
-      <c r="AY1" s="13">
+      <c r="AY1" s="15">
         <v>43739</v>
       </c>
-      <c r="AZ1" s="13">
+      <c r="AZ1" s="15">
         <v>43740</v>
       </c>
-      <c r="BA1" s="13">
+      <c r="BA1" s="15">
         <v>43741</v>
       </c>
-      <c r="BB1" s="13">
+      <c r="BB1" s="15">
         <v>43742</v>
       </c>
-      <c r="BC1" s="13">
+      <c r="BC1" s="15">
         <v>43743</v>
       </c>
-      <c r="BD1" s="13">
+      <c r="BD1" s="15">
         <v>43744</v>
       </c>
-      <c r="BE1" s="13">
+      <c r="BE1" s="15">
         <v>43745</v>
       </c>
-      <c r="BF1" s="13">
+      <c r="BF1" s="15">
         <v>43746</v>
       </c>
-      <c r="BG1" s="13">
+      <c r="BG1" s="15">
         <v>43747</v>
       </c>
-      <c r="BH1" s="13">
+      <c r="BH1" s="15">
         <v>43748</v>
       </c>
-      <c r="BI1" s="13">
+      <c r="BI1" s="15">
         <v>43749</v>
       </c>
-      <c r="BJ1" s="13">
+      <c r="BJ1" s="15">
         <v>43750</v>
       </c>
-      <c r="BK1" s="13">
+      <c r="BK1" s="15">
         <v>43751</v>
       </c>
-      <c r="BL1" s="13">
+      <c r="BL1" s="15">
         <v>43752</v>
       </c>
-      <c r="BM1" s="13">
+      <c r="BM1" s="15">
         <v>43753</v>
       </c>
-      <c r="BN1" s="13">
+      <c r="BN1" s="15">
         <v>43754</v>
       </c>
-      <c r="BO1" s="13">
+      <c r="BO1" s="15">
         <v>43755</v>
       </c>
-      <c r="BP1" s="13">
+      <c r="BP1" s="15">
         <v>43756</v>
       </c>
-      <c r="BQ1" s="13">
+      <c r="BQ1" s="15">
         <v>43757</v>
       </c>
-      <c r="BR1" s="13">
+      <c r="BR1" s="15">
         <v>43758</v>
       </c>
-      <c r="BS1" s="13">
+      <c r="BS1" s="15">
         <v>43759</v>
       </c>
-      <c r="BT1" s="13">
+      <c r="BT1" s="15">
         <v>43760</v>
       </c>
-      <c r="BU1" s="13">
+      <c r="BU1" s="15">
         <v>43761</v>
       </c>
-      <c r="BV1" s="13">
+      <c r="BV1" s="15">
         <v>43762</v>
       </c>
-      <c r="BW1" s="13">
+      <c r="BW1" s="15">
         <v>43763</v>
       </c>
-      <c r="BX1" s="13">
+      <c r="BX1" s="15">
         <v>43764</v>
       </c>
-      <c r="BY1" s="13">
+      <c r="BY1" s="15">
         <v>43765</v>
       </c>
-      <c r="BZ1" s="13">
+      <c r="BZ1" s="15">
         <v>43766</v>
       </c>
-      <c r="CA1" s="13">
+      <c r="CA1" s="15">
         <v>43767</v>
       </c>
-      <c r="CB1" s="13">
+      <c r="CB1" s="15">
         <v>43768</v>
       </c>
-      <c r="CC1" s="13">
+      <c r="CC1" s="15">
         <v>43769</v>
       </c>
-      <c r="CD1" s="13">
+      <c r="CD1" s="15">
         <v>43770</v>
       </c>
-      <c r="CE1" s="13">
+      <c r="CE1" s="15">
         <v>43771</v>
       </c>
-      <c r="CF1" s="13">
+      <c r="CF1" s="15">
         <v>43772</v>
       </c>
-      <c r="CG1" s="13">
+      <c r="CG1" s="15">
         <v>43773</v>
       </c>
-      <c r="CH1" s="13">
+      <c r="CH1" s="15">
         <v>43774</v>
       </c>
-      <c r="CI1" s="13">
+      <c r="CI1" s="15">
         <v>43775</v>
       </c>
-      <c r="CJ1" s="13">
+      <c r="CJ1" s="15">
         <v>43776</v>
       </c>
-      <c r="CK1" s="13">
+      <c r="CK1" s="15">
         <v>43777</v>
       </c>
-      <c r="CL1" s="13">
+      <c r="CL1" s="15">
         <v>43778</v>
       </c>
-      <c r="CM1" s="13">
+      <c r="CM1" s="15">
         <v>43779</v>
       </c>
-      <c r="CN1" s="13">
+      <c r="CN1" s="15">
         <v>43780</v>
       </c>
-      <c r="CO1" s="13">
+      <c r="CO1" s="15">
         <v>43781</v>
       </c>
-      <c r="CP1" s="13">
+      <c r="CP1" s="15">
         <v>43782</v>
       </c>
-      <c r="CQ1" s="13">
+      <c r="CQ1" s="15">
         <v>43783</v>
       </c>
-      <c r="CR1" s="13">
+      <c r="CR1" s="15">
         <v>43784</v>
       </c>
-      <c r="CS1" s="13">
+      <c r="CS1" s="15">
         <v>43785</v>
       </c>
-      <c r="CT1" s="13">
+      <c r="CT1" s="15">
         <v>43786</v>
       </c>
-      <c r="CU1" s="13">
+      <c r="CU1" s="15">
         <v>43787</v>
       </c>
-      <c r="CV1" s="13">
+      <c r="CV1" s="15">
         <v>43788</v>
       </c>
-      <c r="CW1" s="13">
+      <c r="CW1" s="15">
         <v>43789</v>
       </c>
-      <c r="CX1" s="13">
+      <c r="CX1" s="15">
         <v>43790</v>
       </c>
-      <c r="CY1" s="13">
+      <c r="CY1" s="15">
         <v>43791</v>
       </c>
-      <c r="CZ1" s="13">
+      <c r="CZ1" s="15">
         <v>43792</v>
       </c>
-      <c r="DA1" s="13">
+      <c r="DA1" s="15">
         <v>43793</v>
       </c>
-      <c r="DB1" s="13">
+      <c r="DB1" s="15">
         <v>43794</v>
       </c>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="17">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="17">
         <v>3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="17">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="17">
         <v>6</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="17">
         <v>7</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="34">
         <v>8</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="34">
         <v>9</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="34">
         <v>10</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="34">
         <v>11</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="34">
         <v>12</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="34">
         <v>13</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="34">
         <v>14</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="35">
         <v>15</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="35">
         <v>16</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="35">
         <v>17</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="35">
         <v>18</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="35">
         <v>19</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="35">
         <v>20</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="35">
         <v>21</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="17">
         <v>22</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="17">
         <v>23</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="17">
         <v>24</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="17">
         <v>25</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="17">
         <v>26</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="17">
         <v>27</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="17">
         <v>28</v>
       </c>
-      <c r="AC2" s="32">
+      <c r="AC2" s="34">
         <v>29</v>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="34">
         <v>30</v>
       </c>
-      <c r="AE2" s="32">
+      <c r="AE2" s="34">
         <v>31</v>
       </c>
-      <c r="AF2" s="32">
+      <c r="AF2" s="34">
         <v>32</v>
       </c>
-      <c r="AG2" s="32">
+      <c r="AG2" s="34">
         <v>33</v>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="34">
         <v>34</v>
       </c>
-      <c r="AI2" s="32">
+      <c r="AI2" s="34">
         <v>35</v>
       </c>
-      <c r="AJ2" s="33">
+      <c r="AJ2" s="35">
         <v>36</v>
       </c>
-      <c r="AK2" s="33">
+      <c r="AK2" s="35">
         <v>37</v>
       </c>
-      <c r="AL2" s="33">
+      <c r="AL2" s="35">
         <v>38</v>
       </c>
-      <c r="AM2" s="33">
+      <c r="AM2" s="35">
         <v>39</v>
       </c>
-      <c r="AN2" s="33">
+      <c r="AN2" s="35">
         <v>40</v>
       </c>
-      <c r="AO2" s="33">
+      <c r="AO2" s="35">
         <v>41</v>
       </c>
-      <c r="AP2" s="33">
+      <c r="AP2" s="35">
         <v>42</v>
       </c>
       <c r="AQ2">

--- a/FASE_I/Cronograma de Actividades.xlsx
+++ b/FASE_I/Cronograma de Actividades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1689C1-54F9-4E2B-8A38-C47B5BAB9E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB692DAB-171C-4FB2-B649-0B469AAB8462}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{E2AC4C99-70F0-4D77-B37D-574F160D3E68}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E2AC4C99-70F0-4D77-B37D-574F160D3E68}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{2E992CA3-34D2-4956-B52D-8F9F37B54971}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{2E992CA3-34D2-4956-B52D-8F9F37B54971}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{49C5FF36-EA04-48EF-8902-4ADD533ADE31}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{49C5FF36-EA04-48EF-8902-4ADD533ADE31}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{22EAA5F8-41B3-43B6-BB10-155BCC8D74E1}">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{22EAA5F8-41B3-43B6-BB10-155BCC8D74E1}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{C610CCA0-698D-45D7-98E6-0BFA91ACF291}">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{C610CCA0-698D-45D7-98E6-0BFA91ACF291}">
       <text>
         <r>
           <rPr>
@@ -174,10 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Planificador de proyectos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Seleccione un periodo para resaltarlo a la derecha. A continuación hay una leyenda que describe el gráfico.</t>
   </si>
@@ -281,12 +278,6 @@
     <t>Eleccion de Framework</t>
   </si>
   <si>
-    <t>Construccion de BD</t>
-  </si>
-  <si>
-    <t>Modelaje de Datos</t>
-  </si>
-  <si>
     <t>Entrega 50% de Proyecto funcional</t>
   </si>
   <si>
@@ -306,6 +297,27 @@
   </si>
   <si>
     <t>Entrega 1</t>
+  </si>
+  <si>
+    <t>Diseño de BD</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Formulario Paciente</t>
+  </si>
+  <si>
+    <t>Creacio usuarios</t>
+  </si>
+  <si>
+    <t>Historia clinica</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -526,8 +538,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,8 +791,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -829,15 +854,6 @@
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1034,14 +1050,14 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1074,9 +1090,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1092,9 +1105,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1146,7 +1156,16 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="3" xfId="18" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,16 +1177,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
@@ -1179,16 +1189,31 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
@@ -1197,23 +1222,14 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="29" fillId="44" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1665,14 +1681,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DI29"/>
+  <dimension ref="B1:DI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,509 +1704,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:113" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="2:113" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="48">
+        <v>29</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="45"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39"/>
+      <c r="BV2" s="39"/>
+      <c r="BW2" s="39"/>
+      <c r="BX2" s="39"/>
+      <c r="BY2" s="39"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB2" s="39"/>
+      <c r="CC2" s="39"/>
+      <c r="CD2" s="39"/>
+      <c r="CE2" s="39"/>
+      <c r="CF2" s="39"/>
+      <c r="CG2" s="39"/>
+      <c r="CH2" s="39"/>
+      <c r="CI2" s="39"/>
+    </row>
+    <row r="3" spans="2:113" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43"/>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
-      <c r="CF2" s="43"/>
-      <c r="CG2" s="43"/>
-      <c r="CH2" s="43"/>
-      <c r="CI2" s="43"/>
-    </row>
-    <row r="3" spans="2:113" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="40" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AJ3" s="36"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AJ3" s="34"/>
     </row>
     <row r="4" spans="2:113" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="18">
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>2</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>3</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <v>4</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <v>5</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <v>6</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <v>7</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="16">
         <v>8</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="16">
         <v>9</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="16">
         <v>10</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="16">
         <v>11</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="16">
         <v>12</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="16">
         <v>13</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="16">
         <v>14</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="16">
         <v>15</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="16">
         <v>16</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="16">
         <v>17</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="16">
         <v>18</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="16">
         <v>19</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="16">
         <v>20</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="17">
         <v>21</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="17">
         <v>22</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="17">
         <v>23</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="17">
         <v>24</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="17">
         <v>25</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="17">
         <v>26</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="17">
         <v>27</v>
       </c>
-      <c r="AI4" s="19">
+      <c r="AI4" s="17">
         <v>28</v>
       </c>
-      <c r="AJ4" s="19">
+      <c r="AJ4" s="17">
         <v>29</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AK4" s="17">
         <v>30</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AL4" s="17">
         <v>31</v>
       </c>
-      <c r="AM4" s="19">
+      <c r="AM4" s="17">
         <v>32</v>
       </c>
-      <c r="AN4" s="19">
+      <c r="AN4" s="17">
         <v>33</v>
       </c>
-      <c r="AO4" s="19">
+      <c r="AO4" s="17">
         <v>34</v>
       </c>
-      <c r="AP4" s="19">
+      <c r="AP4" s="17">
         <v>35</v>
       </c>
-      <c r="AQ4" s="19">
+      <c r="AQ4" s="17">
         <v>36</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="17">
         <v>37</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="17">
         <v>38</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="17">
         <v>39</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="17">
         <v>40</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="17">
         <v>41</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="17">
         <v>42</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="17">
         <v>43</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="17">
         <v>44</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="17">
         <v>45</v>
       </c>
-      <c r="BA4" s="19">
+      <c r="BA4" s="17">
         <v>46</v>
       </c>
-      <c r="BB4" s="19">
+      <c r="BB4" s="17">
         <v>47</v>
       </c>
-      <c r="BC4" s="19">
+      <c r="BC4" s="17">
         <v>48</v>
       </c>
-      <c r="BD4" s="19">
+      <c r="BD4" s="17">
         <v>49</v>
       </c>
-      <c r="BE4" s="19">
+      <c r="BE4" s="17">
         <v>50</v>
       </c>
-      <c r="BF4" s="20">
+      <c r="BF4" s="18">
         <v>51</v>
       </c>
-      <c r="BG4" s="20">
+      <c r="BG4" s="18">
         <v>52</v>
       </c>
-      <c r="BH4" s="20">
+      <c r="BH4" s="18">
         <v>53</v>
       </c>
-      <c r="BI4" s="20">
+      <c r="BI4" s="18">
         <v>54</v>
       </c>
-      <c r="BJ4" s="20">
+      <c r="BJ4" s="18">
         <v>55</v>
       </c>
-      <c r="BK4" s="20">
+      <c r="BK4" s="18">
         <v>56</v>
       </c>
-      <c r="BL4" s="20">
+      <c r="BL4" s="18">
         <v>57</v>
       </c>
-      <c r="BM4" s="20">
+      <c r="BM4" s="18">
         <v>58</v>
       </c>
-      <c r="BN4" s="20">
+      <c r="BN4" s="18">
         <v>59</v>
       </c>
-      <c r="BO4" s="20">
+      <c r="BO4" s="18">
         <v>60</v>
       </c>
-      <c r="BP4" s="20">
+      <c r="BP4" s="18">
         <v>61</v>
       </c>
-      <c r="BQ4" s="20">
+      <c r="BQ4" s="18">
         <v>62</v>
       </c>
-      <c r="BR4" s="20">
+      <c r="BR4" s="18">
         <v>63</v>
       </c>
-      <c r="BS4" s="20">
+      <c r="BS4" s="18">
         <v>64</v>
       </c>
-      <c r="BT4" s="20">
+      <c r="BT4" s="18">
         <v>65</v>
       </c>
-      <c r="BU4" s="20">
+      <c r="BU4" s="18">
         <v>66</v>
       </c>
-      <c r="BV4" s="20">
+      <c r="BV4" s="18">
         <v>67</v>
       </c>
-      <c r="BW4" s="20">
+      <c r="BW4" s="18">
         <v>68</v>
       </c>
-      <c r="BX4" s="20">
+      <c r="BX4" s="18">
         <v>69</v>
       </c>
-      <c r="BY4" s="20">
+      <c r="BY4" s="18">
         <v>70</v>
       </c>
-      <c r="BZ4" s="20">
+      <c r="BZ4" s="18">
         <v>71</v>
       </c>
-      <c r="CA4" s="20">
+      <c r="CA4" s="18">
         <v>72</v>
       </c>
-      <c r="CB4" s="20">
+      <c r="CB4" s="18">
         <v>73</v>
       </c>
-      <c r="CC4" s="20">
+      <c r="CC4" s="18">
         <v>74</v>
       </c>
-      <c r="CD4" s="20">
+      <c r="CD4" s="18">
         <v>75</v>
       </c>
-      <c r="CE4" s="20">
+      <c r="CE4" s="18">
         <v>76</v>
       </c>
-      <c r="CF4" s="20">
+      <c r="CF4" s="18">
         <v>77</v>
       </c>
-      <c r="CG4" s="20">
+      <c r="CG4" s="18">
         <v>78</v>
       </c>
-      <c r="CH4" s="20">
+      <c r="CH4" s="18">
         <v>79</v>
       </c>
-      <c r="CI4" s="20">
+      <c r="CI4" s="18">
         <v>80</v>
       </c>
-      <c r="CJ4" s="20">
+      <c r="CJ4" s="18">
         <v>81</v>
       </c>
-      <c r="CK4" s="21">
+      <c r="CK4" s="19">
         <v>82</v>
       </c>
-      <c r="CL4" s="21">
+      <c r="CL4" s="19">
         <v>83</v>
       </c>
-      <c r="CM4" s="21">
+      <c r="CM4" s="19">
         <v>84</v>
       </c>
-      <c r="CN4" s="21">
+      <c r="CN4" s="19">
         <v>85</v>
       </c>
-      <c r="CO4" s="21">
+      <c r="CO4" s="19">
         <v>86</v>
       </c>
-      <c r="CP4" s="21">
+      <c r="CP4" s="19">
         <v>87</v>
       </c>
-      <c r="CQ4" s="21">
+      <c r="CQ4" s="19">
         <v>88</v>
       </c>
-      <c r="CR4" s="21">
+      <c r="CR4" s="19">
         <v>89</v>
       </c>
-      <c r="CS4" s="21">
+      <c r="CS4" s="19">
         <v>90</v>
       </c>
-      <c r="CT4" s="21">
+      <c r="CT4" s="19">
         <v>91</v>
       </c>
-      <c r="CU4" s="21">
+      <c r="CU4" s="19">
         <v>92</v>
       </c>
-      <c r="CV4" s="21">
+      <c r="CV4" s="19">
         <v>93</v>
       </c>
-      <c r="CW4" s="21">
+      <c r="CW4" s="19">
         <v>94</v>
       </c>
-      <c r="CX4" s="21">
+      <c r="CX4" s="19">
         <v>95</v>
       </c>
-      <c r="CY4" s="21">
+      <c r="CY4" s="19">
         <v>96</v>
       </c>
-      <c r="CZ4" s="21">
+      <c r="CZ4" s="19">
         <v>97</v>
       </c>
-      <c r="DA4" s="21">
+      <c r="DA4" s="19">
         <v>98</v>
       </c>
-      <c r="DB4" s="21">
+      <c r="DB4" s="19">
         <v>99</v>
       </c>
-      <c r="DC4" s="21">
+      <c r="DC4" s="19">
         <v>100</v>
       </c>
-      <c r="DD4" s="21">
+      <c r="DD4" s="19">
         <v>101</v>
       </c>
-      <c r="DE4" s="21">
+      <c r="DE4" s="19">
         <v>102</v>
       </c>
-      <c r="DF4" s="21">
+      <c r="DF4" s="19">
         <v>103</v>
       </c>
-      <c r="DG4" s="21">
+      <c r="DG4" s="19">
         <v>104</v>
       </c>
-      <c r="DH4" s="21">
+      <c r="DH4" s="19">
         <v>105</v>
       </c>
-      <c r="DI4" s="21">
+      <c r="DI4" s="19">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="28">
-        <v>9</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="D5" s="26">
+        <v>3</v>
+      </c>
+      <c r="E5" s="26">
         <v>2</v>
       </c>
-      <c r="F5" s="28">
-        <v>8</v>
-      </c>
-      <c r="G5" s="29">
+      <c r="F5" s="26">
+        <v>2</v>
+      </c>
+      <c r="G5" s="27">
         <v>0.7</v>
       </c>
       <c r="H5"/>
@@ -2215,22 +2231,22 @@
       <c r="AA5"/>
     </row>
     <row r="6" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="31">
-        <v>6</v>
-      </c>
-      <c r="D6" s="31">
-        <v>7</v>
-      </c>
-      <c r="E6" s="31">
-        <v>6</v>
-      </c>
-      <c r="F6" s="31">
-        <v>6</v>
-      </c>
-      <c r="G6" s="32">
+      <c r="B6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30">
         <v>0.6</v>
       </c>
       <c r="H6"/>
@@ -2254,24 +2270,24 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="31">
-        <v>11</v>
-      </c>
-      <c r="D7" s="31">
-        <v>7</v>
-      </c>
-      <c r="E7" s="31">
-        <v>11</v>
-      </c>
-      <c r="F7" s="31">
-        <v>7</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0.8</v>
+    <row r="7" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="29">
+        <v>3</v>
+      </c>
+      <c r="E7" s="29">
+        <v>4</v>
+      </c>
+      <c r="F7" s="29">
+        <v>3</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -2295,23 +2311,23 @@
       <c r="AA7"/>
     </row>
     <row r="8" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="31">
+      <c r="B8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="31">
-        <v>7</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="29">
         <v>6</v>
       </c>
-      <c r="F8" s="31">
-        <v>6</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0.4</v>
+      <c r="F8" s="29">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.5</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -2335,22 +2351,22 @@
       <c r="AA8"/>
     </row>
     <row r="9" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="31">
-        <v>2</v>
-      </c>
-      <c r="D9" s="31">
-        <v>7</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="B9" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="29">
+        <v>9</v>
+      </c>
+      <c r="D9" s="29">
         <v>3</v>
       </c>
-      <c r="F9" s="31">
-        <v>6</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="E9" s="29">
+        <v>9</v>
+      </c>
+      <c r="F9" s="29">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30">
         <v>1</v>
       </c>
       <c r="H9"/>
@@ -2374,24 +2390,24 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="31">
-        <v>27</v>
-      </c>
-      <c r="D10" s="31">
-        <v>3</v>
+    <row r="10" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="36">
+        <v>12</v>
+      </c>
+      <c r="D10" s="36">
+        <v>59</v>
       </c>
       <c r="E10" s="31">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F10" s="31">
-        <v>3</v>
-      </c>
-      <c r="G10" s="32">
         <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.1</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -2414,24 +2430,24 @@
       <c r="Z10"/>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="31">
-        <v>27</v>
-      </c>
-      <c r="D11" s="31">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31">
-        <v>27</v>
-      </c>
-      <c r="F11" s="31">
-        <v>1</v>
-      </c>
-      <c r="G11" s="32">
-        <v>0</v>
+    <row r="11" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="29">
+        <v>25</v>
+      </c>
+      <c r="D11" s="29">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29">
+        <v>26</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.2</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -2455,18 +2471,24 @@
       <c r="AA11"/>
     </row>
     <row r="12" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="31">
-        <v>29</v>
-      </c>
-      <c r="D12" s="31">
+      <c r="B12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="29">
+        <v>28</v>
+      </c>
+      <c r="D12" s="29">
         <v>1</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="E12" s="29">
+        <v>28</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2489,18 +2511,18 @@
       <c r="AA12"/>
     </row>
     <row r="13" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="31">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31">
-        <v>14</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32">
+      <c r="B13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="29">
+        <v>29</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30">
         <v>0</v>
       </c>
       <c r="H13"/>
@@ -2524,20 +2546,20 @@
       <c r="Z13"/>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="39">
-        <v>27</v>
-      </c>
-      <c r="D14" s="39">
-        <v>40</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32">
-        <v>0</v>
+    <row r="14" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="29">
+        <v>21</v>
+      </c>
+      <c r="D14" s="29">
+        <v>14</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30">
+        <v>0.05</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2560,20 +2582,22 @@
       <c r="Z14"/>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="38">
-        <v>27</v>
-      </c>
-      <c r="D15" s="38">
-        <v>80</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32">
-        <v>0</v>
+    <row r="15" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="29">
+        <v>25</v>
+      </c>
+      <c r="D15" s="29">
+        <v>32</v>
+      </c>
+      <c r="E15" s="29">
+        <v>26</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30">
+        <v>0.05</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -2597,19 +2621,21 @@
       <c r="AA15"/>
     </row>
     <row r="16" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="38">
-        <v>27</v>
-      </c>
-      <c r="D16" s="38">
-        <v>80</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32">
-        <v>0</v>
+      <c r="B16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="37">
+        <v>25</v>
+      </c>
+      <c r="D16" s="37">
+        <v>32</v>
+      </c>
+      <c r="E16" s="29">
+        <v>26</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30">
+        <v>0.05</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2632,20 +2658,22 @@
       <c r="Z16"/>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="2:113" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="38">
-        <v>57</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="32">
-        <v>0</v>
+    <row r="17" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="37">
+        <v>25</v>
+      </c>
+      <c r="D17" s="37">
+        <v>32</v>
+      </c>
+      <c r="E17" s="29">
+        <v>26</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30">
+        <v>0.05</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2668,20 +2696,22 @@
       <c r="Z17"/>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="39">
-        <v>57</v>
-      </c>
-      <c r="D18" s="39">
-        <v>1</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32">
-        <v>0</v>
+    <row r="18" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="37">
+        <v>25</v>
+      </c>
+      <c r="D18" s="37">
+        <v>32</v>
+      </c>
+      <c r="E18" s="29">
+        <v>26</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30">
+        <v>0.05</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2704,20 +2734,22 @@
       <c r="Z18"/>
       <c r="AA18"/>
     </row>
-    <row r="19" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+    <row r="19" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="37">
         <v>25</v>
       </c>
-      <c r="C19" s="39">
-        <v>41</v>
-      </c>
-      <c r="D19" s="39">
-        <v>22</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32">
-        <v>0</v>
+      <c r="D19" s="37">
+        <v>32</v>
+      </c>
+      <c r="E19" s="29">
+        <v>26</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30">
+        <v>0.05</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2740,19 +2772,19 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="39">
-        <v>21</v>
-      </c>
-      <c r="D20" s="39">
-        <v>8</v>
+    <row r="20" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="36">
+        <v>27</v>
+      </c>
+      <c r="D20" s="36">
+        <v>80</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="32">
+      <c r="G20" s="30">
         <v>0</v>
       </c>
       <c r="H20"/>
@@ -2776,19 +2808,19 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="39">
-        <v>78</v>
-      </c>
-      <c r="D21" s="39">
+    <row r="21" spans="2:27" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="36">
+        <v>57</v>
+      </c>
+      <c r="D21" s="36">
         <v>1</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <v>0</v>
       </c>
       <c r="H21"/>
@@ -2812,19 +2844,19 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="39">
-        <v>27</v>
-      </c>
-      <c r="D22" s="39">
-        <v>42</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32">
+    <row r="22" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="37">
+        <v>57</v>
+      </c>
+      <c r="D22" s="37">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30">
         <v>0</v>
       </c>
       <c r="H22"/>
@@ -2848,19 +2880,19 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:113" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="37">
         <v>41</v>
       </c>
-      <c r="C23" s="38">
-        <v>27</v>
-      </c>
-      <c r="D23" s="38">
-        <v>78</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="32">
+      <c r="D23" s="37">
+        <v>22</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30">
         <v>0</v>
       </c>
       <c r="H23"/>
@@ -2884,19 +2916,19 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="38">
-        <v>37</v>
-      </c>
-      <c r="D24" s="38">
-        <v>78</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="32">
+    <row r="24" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="37">
+        <v>21</v>
+      </c>
+      <c r="D24" s="37">
+        <v>8</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30">
         <v>0</v>
       </c>
       <c r="H24"/>
@@ -2920,19 +2952,19 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:113" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="39">
-        <v>42</v>
-      </c>
-      <c r="D25" s="39">
+    <row r="25" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="37">
         <v>78</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="32">
+      <c r="D25" s="37">
+        <v>1</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30">
         <v>0</v>
       </c>
       <c r="H25"/>
@@ -2956,19 +2988,19 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="39">
-        <v>92</v>
-      </c>
-      <c r="D26" s="39">
-        <v>8</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32">
+    <row r="26" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="37">
+        <v>27</v>
+      </c>
+      <c r="D26" s="37">
+        <v>42</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30">
         <v>0</v>
       </c>
       <c r="H26"/>
@@ -2992,19 +3024,19 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="39">
-        <v>92</v>
-      </c>
-      <c r="D27" s="39">
-        <v>8</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32">
+    <row r="27" spans="2:27" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="36">
+        <v>27</v>
+      </c>
+      <c r="D27" s="36">
+        <v>78</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="30">
         <v>0</v>
       </c>
       <c r="H27"/>
@@ -3028,19 +3060,19 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="39">
-        <v>99</v>
-      </c>
-      <c r="D28" s="39">
-        <v>7</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32">
+    <row r="28" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="36">
+        <v>37</v>
+      </c>
+      <c r="D28" s="36">
+        <v>78</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="30">
         <v>0</v>
       </c>
       <c r="H28"/>
@@ -3064,19 +3096,19 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="39">
-        <v>98</v>
-      </c>
-      <c r="D29" s="39">
-        <v>9</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32">
+    <row r="29" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="37">
+        <v>42</v>
+      </c>
+      <c r="D29" s="37">
+        <v>78</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="30">
         <v>0</v>
       </c>
       <c r="H29"/>
@@ -3099,74 +3131,233 @@
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
-      <c r="BP29" s="26"/>
-      <c r="BQ29" s="26"/>
-      <c r="BR29" s="26"/>
-      <c r="BS29" s="26"/>
-      <c r="BT29" s="26"/>
-      <c r="BU29" s="26"/>
-      <c r="BV29" s="26"/>
-      <c r="BW29" s="26"/>
-      <c r="BX29" s="26"/>
-      <c r="BY29" s="26"/>
-      <c r="BZ29" s="26"/>
-      <c r="CA29" s="26"/>
-      <c r="CB29" s="26"/>
-      <c r="CC29" s="26"/>
-      <c r="CD29" s="26"/>
-      <c r="CE29" s="26"/>
-      <c r="CF29" s="26"/>
-      <c r="CG29" s="26"/>
-      <c r="CH29" s="26"/>
-      <c r="CI29" s="26"/>
-      <c r="CJ29" s="26"/>
-      <c r="CK29" s="26"/>
-      <c r="CL29" s="26"/>
-      <c r="CM29" s="26"/>
-      <c r="CN29" s="26"/>
-      <c r="CO29" s="26"/>
-      <c r="CP29" s="26"/>
-      <c r="CQ29" s="26"/>
-      <c r="CR29" s="26"/>
-      <c r="CS29" s="26"/>
-      <c r="CT29" s="26"/>
-      <c r="CU29" s="26"/>
-      <c r="CV29" s="26"/>
-      <c r="CW29" s="26"/>
-      <c r="CX29" s="26"/>
-      <c r="CY29" s="26"/>
-      <c r="CZ29" s="26"/>
-      <c r="DA29" s="26"/>
-      <c r="DB29" s="26"/>
-      <c r="DC29" s="26"/>
-      <c r="DD29" s="26"/>
-      <c r="DE29" s="26"/>
-      <c r="DF29" s="26"/>
-      <c r="DG29" s="26"/>
-      <c r="DH29" s="26"/>
-      <c r="DI29" s="26"/>
+    </row>
+    <row r="30" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="37">
+        <v>92</v>
+      </c>
+      <c r="D30" s="37">
+        <v>8</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30">
+        <v>0</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+    </row>
+    <row r="31" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="37">
+        <v>92</v>
+      </c>
+      <c r="D31" s="37">
+        <v>8</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+    </row>
+    <row r="32" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="37">
+        <v>99</v>
+      </c>
+      <c r="D32" s="37">
+        <v>7</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+    </row>
+    <row r="33" spans="2:113" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="37">
+        <v>98</v>
+      </c>
+      <c r="D33" s="37">
+        <v>9</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="24"/>
+      <c r="BD33" s="24"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="24"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="24"/>
+      <c r="BI33" s="24"/>
+      <c r="BJ33" s="24"/>
+      <c r="BK33" s="24"/>
+      <c r="BL33" s="24"/>
+      <c r="BM33" s="24"/>
+      <c r="BN33" s="24"/>
+      <c r="BO33" s="24"/>
+      <c r="BP33" s="24"/>
+      <c r="BQ33" s="24"/>
+      <c r="BR33" s="24"/>
+      <c r="BS33" s="24"/>
+      <c r="BT33" s="24"/>
+      <c r="BU33" s="24"/>
+      <c r="BV33" s="24"/>
+      <c r="BW33" s="24"/>
+      <c r="BX33" s="24"/>
+      <c r="BY33" s="24"/>
+      <c r="BZ33" s="24"/>
+      <c r="CA33" s="24"/>
+      <c r="CB33" s="24"/>
+      <c r="CC33" s="24"/>
+      <c r="CD33" s="24"/>
+      <c r="CE33" s="24"/>
+      <c r="CF33" s="24"/>
+      <c r="CG33" s="24"/>
+      <c r="CH33" s="24"/>
+      <c r="CI33" s="24"/>
+      <c r="CJ33" s="24"/>
+      <c r="CK33" s="24"/>
+      <c r="CL33" s="24"/>
+      <c r="CM33" s="24"/>
+      <c r="CN33" s="24"/>
+      <c r="CO33" s="24"/>
+      <c r="CP33" s="24"/>
+      <c r="CQ33" s="24"/>
+      <c r="CR33" s="24"/>
+      <c r="CS33" s="24"/>
+      <c r="CT33" s="24"/>
+      <c r="CU33" s="24"/>
+      <c r="CV33" s="24"/>
+      <c r="CW33" s="24"/>
+      <c r="CX33" s="24"/>
+      <c r="CY33" s="24"/>
+      <c r="CZ33" s="24"/>
+      <c r="DA33" s="24"/>
+      <c r="DB33" s="24"/>
+      <c r="DC33" s="24"/>
+      <c r="DD33" s="24"/>
+      <c r="DE33" s="24"/>
+      <c r="DF33" s="24"/>
+      <c r="DG33" s="24"/>
+      <c r="DH33" s="24"/>
+      <c r="DI33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="AC2:AI2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AV2:BD2"/>
     <mergeCell ref="BG2:BO2"/>
     <mergeCell ref="BQ2:BY2"/>
     <mergeCell ref="CA2:CI2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="AC2:AI2"/>
-    <mergeCell ref="W2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="H5:DI29">
+  <conditionalFormatting sqref="H5:DI33">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3192,7 +3383,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:BO30">
+  <conditionalFormatting sqref="B34:BO34">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
@@ -3239,10 +3430,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E754E05-9A67-4BC7-9670-AF4213C9CCF5}">
-  <dimension ref="A1:DB7"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:DB11"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BZ2" sqref="BZ2"/>
+    <sheetView topLeftCell="CW1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:DB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,450 +3538,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+      <c r="A1" s="13">
         <v>43689</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>43690</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>43691</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>43692</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>43693</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>43694</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>43695</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>43696</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>43697</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="13">
         <v>43698</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="13">
         <v>43699</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="13">
         <v>43700</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>43701</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="13">
         <v>43702</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="13">
         <v>43703</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="13">
         <v>43704</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="13">
         <v>43705</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="13">
         <v>43706</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="13">
         <v>43707</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="13">
         <v>43708</v>
       </c>
-      <c r="U1" s="15">
+      <c r="U1" s="13">
         <v>43709</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="13">
         <v>43710</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="13">
         <v>43711</v>
       </c>
-      <c r="X1" s="15">
+      <c r="X1" s="13">
         <v>43712</v>
       </c>
-      <c r="Y1" s="15">
+      <c r="Y1" s="13">
         <v>43713</v>
       </c>
-      <c r="Z1" s="15">
+      <c r="Z1" s="13">
         <v>43714</v>
       </c>
-      <c r="AA1" s="15">
+      <c r="AA1" s="13">
         <v>43715</v>
       </c>
-      <c r="AB1" s="15">
+      <c r="AB1" s="13">
         <v>43716</v>
       </c>
-      <c r="AC1" s="16">
+      <c r="AC1" s="14">
         <v>43717</v>
       </c>
-      <c r="AD1" s="15">
+      <c r="AD1" s="13">
         <v>43718</v>
       </c>
-      <c r="AE1" s="15">
+      <c r="AE1" s="13">
         <v>43719</v>
       </c>
-      <c r="AF1" s="15">
+      <c r="AF1" s="13">
         <v>43720</v>
       </c>
-      <c r="AG1" s="15">
+      <c r="AG1" s="13">
         <v>43721</v>
       </c>
-      <c r="AH1" s="15">
+      <c r="AH1" s="13">
         <v>43722</v>
       </c>
-      <c r="AI1" s="15">
+      <c r="AI1" s="13">
         <v>43723</v>
       </c>
-      <c r="AJ1" s="15">
+      <c r="AJ1" s="13">
         <v>43724</v>
       </c>
-      <c r="AK1" s="15">
+      <c r="AK1" s="13">
         <v>43725</v>
       </c>
-      <c r="AL1" s="15">
+      <c r="AL1" s="13">
         <v>43726</v>
       </c>
-      <c r="AM1" s="15">
+      <c r="AM1" s="13">
         <v>43727</v>
       </c>
-      <c r="AN1" s="15">
+      <c r="AN1" s="13">
         <v>43728</v>
       </c>
-      <c r="AO1" s="15">
+      <c r="AO1" s="13">
         <v>43729</v>
       </c>
-      <c r="AP1" s="15">
+      <c r="AP1" s="13">
         <v>43730</v>
       </c>
-      <c r="AQ1" s="15">
+      <c r="AQ1" s="13">
         <v>43731</v>
       </c>
-      <c r="AR1" s="15">
+      <c r="AR1" s="13">
         <v>43732</v>
       </c>
-      <c r="AS1" s="15">
+      <c r="AS1" s="13">
         <v>43733</v>
       </c>
-      <c r="AT1" s="15">
+      <c r="AT1" s="13">
         <v>43734</v>
       </c>
-      <c r="AU1" s="15">
+      <c r="AU1" s="13">
         <v>43735</v>
       </c>
-      <c r="AV1" s="15">
+      <c r="AV1" s="13">
         <v>43736</v>
       </c>
-      <c r="AW1" s="15">
+      <c r="AW1" s="13">
         <v>43737</v>
       </c>
-      <c r="AX1" s="15">
+      <c r="AX1" s="13">
         <v>43738</v>
       </c>
-      <c r="AY1" s="15">
+      <c r="AY1" s="13">
         <v>43739</v>
       </c>
-      <c r="AZ1" s="15">
+      <c r="AZ1" s="13">
         <v>43740</v>
       </c>
-      <c r="BA1" s="15">
+      <c r="BA1" s="13">
         <v>43741</v>
       </c>
-      <c r="BB1" s="15">
+      <c r="BB1" s="13">
         <v>43742</v>
       </c>
-      <c r="BC1" s="15">
+      <c r="BC1" s="13">
         <v>43743</v>
       </c>
-      <c r="BD1" s="15">
+      <c r="BD1" s="13">
         <v>43744</v>
       </c>
-      <c r="BE1" s="15">
+      <c r="BE1" s="13">
         <v>43745</v>
       </c>
-      <c r="BF1" s="15">
+      <c r="BF1" s="13">
         <v>43746</v>
       </c>
-      <c r="BG1" s="15">
+      <c r="BG1" s="13">
         <v>43747</v>
       </c>
-      <c r="BH1" s="15">
+      <c r="BH1" s="13">
         <v>43748</v>
       </c>
-      <c r="BI1" s="15">
+      <c r="BI1" s="13">
         <v>43749</v>
       </c>
-      <c r="BJ1" s="15">
+      <c r="BJ1" s="13">
         <v>43750</v>
       </c>
-      <c r="BK1" s="15">
+      <c r="BK1" s="13">
         <v>43751</v>
       </c>
-      <c r="BL1" s="15">
+      <c r="BL1" s="13">
         <v>43752</v>
       </c>
-      <c r="BM1" s="15">
+      <c r="BM1" s="13">
         <v>43753</v>
       </c>
-      <c r="BN1" s="15">
+      <c r="BN1" s="13">
         <v>43754</v>
       </c>
-      <c r="BO1" s="15">
+      <c r="BO1" s="13">
         <v>43755</v>
       </c>
-      <c r="BP1" s="15">
+      <c r="BP1" s="13">
         <v>43756</v>
       </c>
-      <c r="BQ1" s="15">
+      <c r="BQ1" s="13">
         <v>43757</v>
       </c>
-      <c r="BR1" s="15">
+      <c r="BR1" s="13">
         <v>43758</v>
       </c>
-      <c r="BS1" s="15">
+      <c r="BS1" s="13">
         <v>43759</v>
       </c>
-      <c r="BT1" s="15">
+      <c r="BT1" s="13">
         <v>43760</v>
       </c>
-      <c r="BU1" s="15">
+      <c r="BU1" s="13">
         <v>43761</v>
       </c>
-      <c r="BV1" s="15">
+      <c r="BV1" s="13">
         <v>43762</v>
       </c>
-      <c r="BW1" s="15">
+      <c r="BW1" s="13">
         <v>43763</v>
       </c>
-      <c r="BX1" s="15">
+      <c r="BX1" s="13">
         <v>43764</v>
       </c>
-      <c r="BY1" s="15">
+      <c r="BY1" s="13">
         <v>43765</v>
       </c>
-      <c r="BZ1" s="15">
+      <c r="BZ1" s="13">
         <v>43766</v>
       </c>
-      <c r="CA1" s="15">
+      <c r="CA1" s="13">
         <v>43767</v>
       </c>
-      <c r="CB1" s="15">
+      <c r="CB1" s="13">
         <v>43768</v>
       </c>
-      <c r="CC1" s="15">
+      <c r="CC1" s="13">
         <v>43769</v>
       </c>
-      <c r="CD1" s="15">
+      <c r="CD1" s="13">
         <v>43770</v>
       </c>
-      <c r="CE1" s="15">
+      <c r="CE1" s="13">
         <v>43771</v>
       </c>
-      <c r="CF1" s="15">
+      <c r="CF1" s="13">
         <v>43772</v>
       </c>
-      <c r="CG1" s="15">
+      <c r="CG1" s="13">
         <v>43773</v>
       </c>
-      <c r="CH1" s="15">
+      <c r="CH1" s="13">
         <v>43774</v>
       </c>
-      <c r="CI1" s="15">
+      <c r="CI1" s="13">
         <v>43775</v>
       </c>
-      <c r="CJ1" s="15">
+      <c r="CJ1" s="13">
         <v>43776</v>
       </c>
-      <c r="CK1" s="15">
+      <c r="CK1" s="13">
         <v>43777</v>
       </c>
-      <c r="CL1" s="15">
+      <c r="CL1" s="13">
         <v>43778</v>
       </c>
-      <c r="CM1" s="15">
+      <c r="CM1" s="13">
         <v>43779</v>
       </c>
-      <c r="CN1" s="15">
+      <c r="CN1" s="13">
         <v>43780</v>
       </c>
-      <c r="CO1" s="15">
+      <c r="CO1" s="13">
         <v>43781</v>
       </c>
-      <c r="CP1" s="15">
+      <c r="CP1" s="13">
         <v>43782</v>
       </c>
-      <c r="CQ1" s="15">
+      <c r="CQ1" s="13">
         <v>43783</v>
       </c>
-      <c r="CR1" s="15">
+      <c r="CR1" s="13">
         <v>43784</v>
       </c>
-      <c r="CS1" s="15">
+      <c r="CS1" s="13">
         <v>43785</v>
       </c>
-      <c r="CT1" s="15">
+      <c r="CT1" s="13">
         <v>43786</v>
       </c>
-      <c r="CU1" s="15">
+      <c r="CU1" s="13">
         <v>43787</v>
       </c>
-      <c r="CV1" s="15">
+      <c r="CV1" s="13">
         <v>43788</v>
       </c>
-      <c r="CW1" s="15">
+      <c r="CW1" s="13">
         <v>43789</v>
       </c>
-      <c r="CX1" s="15">
+      <c r="CX1" s="13">
         <v>43790</v>
       </c>
-      <c r="CY1" s="15">
+      <c r="CY1" s="13">
         <v>43791</v>
       </c>
-      <c r="CZ1" s="15">
+      <c r="CZ1" s="13">
         <v>43792</v>
       </c>
-      <c r="DA1" s="15">
+      <c r="DA1" s="13">
         <v>43793</v>
       </c>
-      <c r="DB1" s="15">
+      <c r="DB1" s="13">
         <v>43794</v>
       </c>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <v>3</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="15">
         <v>4</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="15">
         <v>6</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>7</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="32">
         <v>8</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="32">
         <v>9</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="32">
         <v>10</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="32">
         <v>11</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="32">
         <v>12</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="32">
         <v>13</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="32">
         <v>14</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="33">
         <v>15</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="33">
         <v>16</v>
       </c>
-      <c r="Q2" s="35">
+      <c r="Q2" s="33">
         <v>17</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="33">
         <v>18</v>
       </c>
-      <c r="S2" s="35">
+      <c r="S2" s="33">
         <v>19</v>
       </c>
-      <c r="T2" s="35">
+      <c r="T2" s="33">
         <v>20</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="33">
         <v>21</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="15">
         <v>22</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="15">
         <v>23</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="15">
         <v>24</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="15">
         <v>25</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="15">
         <v>26</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="15">
         <v>27</v>
       </c>
-      <c r="AB2" s="17">
+      <c r="AB2" s="15">
         <v>28</v>
       </c>
-      <c r="AC2" s="34">
+      <c r="AC2" s="32">
         <v>29</v>
       </c>
-      <c r="AD2" s="34">
+      <c r="AD2" s="32">
         <v>30</v>
       </c>
-      <c r="AE2" s="34">
+      <c r="AE2" s="32">
         <v>31</v>
       </c>
-      <c r="AF2" s="34">
+      <c r="AF2" s="32">
         <v>32</v>
       </c>
-      <c r="AG2" s="34">
+      <c r="AG2" s="32">
         <v>33</v>
       </c>
-      <c r="AH2" s="34">
+      <c r="AH2" s="32">
         <v>34</v>
       </c>
-      <c r="AI2" s="34">
+      <c r="AI2" s="32">
         <v>35</v>
       </c>
-      <c r="AJ2" s="35">
+      <c r="AJ2" s="33">
         <v>36</v>
       </c>
-      <c r="AK2" s="35">
+      <c r="AK2" s="33">
         <v>37</v>
       </c>
-      <c r="AL2" s="35">
+      <c r="AL2" s="33">
         <v>38</v>
       </c>
-      <c r="AM2" s="35">
+      <c r="AM2" s="33">
         <v>39</v>
       </c>
-      <c r="AN2" s="35">
+      <c r="AN2" s="33">
         <v>40</v>
       </c>
-      <c r="AO2" s="35">
+      <c r="AO2" s="33">
         <v>41</v>
       </c>
-      <c r="AP2" s="35">
+      <c r="AP2" s="33">
         <v>42</v>
       </c>
       <c r="AQ2">
@@ -3998,6 +4190,17 @@
       <c r="E7">
         <f>B7*C7*D7</f>
         <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>8*4*3</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
